--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>149800</v>
+        <v>150100</v>
       </c>
       <c r="E8" s="3">
-        <v>162100</v>
+        <v>162300</v>
       </c>
       <c r="F8" s="3">
-        <v>181100</v>
+        <v>181400</v>
       </c>
       <c r="G8" s="3">
-        <v>194400</v>
+        <v>194700</v>
       </c>
       <c r="H8" s="3">
-        <v>214500</v>
+        <v>214900</v>
       </c>
       <c r="I8" s="3">
-        <v>248800</v>
+        <v>249200</v>
       </c>
       <c r="J8" s="3">
-        <v>274000</v>
+        <v>274400</v>
       </c>
       <c r="K8" s="3">
         <v>268700</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>150500</v>
+        <v>150700</v>
       </c>
       <c r="E9" s="3">
-        <v>136400</v>
+        <v>136600</v>
       </c>
       <c r="F9" s="3">
-        <v>135800</v>
+        <v>136000</v>
       </c>
       <c r="G9" s="3">
-        <v>152800</v>
+        <v>153000</v>
       </c>
       <c r="H9" s="3">
-        <v>160300</v>
+        <v>160500</v>
       </c>
       <c r="I9" s="3">
-        <v>181700</v>
+        <v>182000</v>
       </c>
       <c r="J9" s="3">
-        <v>226700</v>
+        <v>227000</v>
       </c>
       <c r="K9" s="3">
         <v>206700</v>
@@ -780,19 +780,19 @@
         <v>25700</v>
       </c>
       <c r="F10" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="G10" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="H10" s="3">
         <v>54300</v>
       </c>
       <c r="I10" s="3">
-        <v>67100</v>
+        <v>67200</v>
       </c>
       <c r="J10" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="K10" s="3">
         <v>62100</v>
@@ -911,13 +911,13 @@
         <v>15700</v>
       </c>
       <c r="E15" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="F15" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="G15" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="H15" s="3">
         <v>29200</v>
@@ -926,7 +926,7 @@
         <v>30600</v>
       </c>
       <c r="J15" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="K15" s="3">
         <v>32900</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>208800</v>
+        <v>209100</v>
       </c>
       <c r="E17" s="3">
-        <v>210000</v>
+        <v>210400</v>
       </c>
       <c r="F17" s="3">
-        <v>221300</v>
+        <v>221600</v>
       </c>
       <c r="G17" s="3">
-        <v>225600</v>
+        <v>226000</v>
       </c>
       <c r="H17" s="3">
-        <v>232400</v>
+        <v>232800</v>
       </c>
       <c r="I17" s="3">
-        <v>260100</v>
+        <v>260500</v>
       </c>
       <c r="J17" s="3">
-        <v>309300</v>
+        <v>309800</v>
       </c>
       <c r="K17" s="3">
         <v>291600</v>
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-58900</v>
+        <v>-59000</v>
       </c>
       <c r="E18" s="3">
         <v>-48000</v>
@@ -988,7 +988,7 @@
         <v>-40200</v>
       </c>
       <c r="G18" s="3">
-        <v>-31200</v>
+        <v>-31300</v>
       </c>
       <c r="H18" s="3">
         <v>-17900</v>
@@ -1056,7 +1056,7 @@
         <v>-16400</v>
       </c>
       <c r="E21" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F21" s="3">
         <v>1500</v>
@@ -1068,10 +1068,10 @@
         <v>26600</v>
       </c>
       <c r="I21" s="3">
-        <v>30700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>9500</v>
+        <v>30800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>20100</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-58600</v>
+        <v>-58700</v>
       </c>
       <c r="E23" s="3">
         <v>-47200</v>
       </c>
       <c r="F23" s="3">
-        <v>-40900</v>
+        <v>-41000</v>
       </c>
       <c r="G23" s="3">
         <v>-31800</v>
       </c>
       <c r="H23" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="I23" s="3">
         <v>-11600</v>
       </c>
       <c r="J23" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="K23" s="3">
         <v>-23300</v>
@@ -1203,16 +1203,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-58700</v>
+        <v>-58800</v>
       </c>
       <c r="E26" s="3">
-        <v>-46700</v>
+        <v>-46800</v>
       </c>
       <c r="F26" s="3">
         <v>-40300</v>
       </c>
       <c r="G26" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="H26" s="3">
         <v>-18000</v>
@@ -1221,7 +1221,7 @@
         <v>-12000</v>
       </c>
       <c r="J26" s="3">
-        <v>-35800</v>
+        <v>-35900</v>
       </c>
       <c r="K26" s="3">
         <v>-22900</v>
@@ -1233,16 +1233,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-58700</v>
+        <v>-58800</v>
       </c>
       <c r="E27" s="3">
-        <v>-46700</v>
+        <v>-46800</v>
       </c>
       <c r="F27" s="3">
         <v>-40300</v>
       </c>
       <c r="G27" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="H27" s="3">
         <v>-18000</v>
@@ -1251,7 +1251,7 @@
         <v>-12000</v>
       </c>
       <c r="J27" s="3">
-        <v>-35800</v>
+        <v>-35900</v>
       </c>
       <c r="K27" s="3">
         <v>-22900</v>
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-58700</v>
+        <v>-58800</v>
       </c>
       <c r="E33" s="3">
-        <v>-46700</v>
+        <v>-46800</v>
       </c>
       <c r="F33" s="3">
         <v>-40300</v>
       </c>
       <c r="G33" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="H33" s="3">
         <v>-18000</v>
@@ -1431,7 +1431,7 @@
         <v>-12000</v>
       </c>
       <c r="J33" s="3">
-        <v>-35800</v>
+        <v>-35900</v>
       </c>
       <c r="K33" s="3">
         <v>-22900</v>
@@ -1473,16 +1473,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-58700</v>
+        <v>-58800</v>
       </c>
       <c r="E35" s="3">
-        <v>-46700</v>
+        <v>-46800</v>
       </c>
       <c r="F35" s="3">
         <v>-40300</v>
       </c>
       <c r="G35" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="H35" s="3">
         <v>-18000</v>
@@ -1491,7 +1491,7 @@
         <v>-12000</v>
       </c>
       <c r="J35" s="3">
-        <v>-35800</v>
+        <v>-35900</v>
       </c>
       <c r="K35" s="3">
         <v>-22900</v>
@@ -1569,10 +1569,10 @@
         <v>22900</v>
       </c>
       <c r="E41" s="3">
-        <v>75300</v>
+        <v>75400</v>
       </c>
       <c r="F41" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G41" s="3">
         <v>10600</v>
@@ -1581,10 +1581,10 @@
         <v>8000</v>
       </c>
       <c r="I41" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="J41" s="3">
-        <v>37100</v>
+        <v>37200</v>
       </c>
       <c r="K41" s="3">
         <v>43100</v>
@@ -1629,10 +1629,10 @@
         <v>7500</v>
       </c>
       <c r="E43" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F43" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G43" s="3">
         <v>8800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="E46" s="3">
-        <v>87700</v>
+        <v>87800</v>
       </c>
       <c r="F46" s="3">
         <v>27100</v>
       </c>
       <c r="G46" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="H46" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="I46" s="3">
         <v>42700</v>
       </c>
       <c r="J46" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="K46" s="3">
         <v>75700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>110600</v>
+        <v>110800</v>
       </c>
       <c r="E48" s="3">
-        <v>114500</v>
+        <v>114700</v>
       </c>
       <c r="F48" s="3">
-        <v>115100</v>
+        <v>115300</v>
       </c>
       <c r="G48" s="3">
-        <v>112500</v>
+        <v>112700</v>
       </c>
       <c r="H48" s="3">
-        <v>115000</v>
+        <v>115200</v>
       </c>
       <c r="I48" s="3">
-        <v>120300</v>
+        <v>120500</v>
       </c>
       <c r="J48" s="3">
-        <v>131900</v>
+        <v>132100</v>
       </c>
       <c r="K48" s="3">
         <v>136900</v>
@@ -1806,7 +1806,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="E49" s="3">
         <v>19700</v>
@@ -1815,10 +1815,10 @@
         <v>22100</v>
       </c>
       <c r="G49" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="H49" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="I49" s="3">
         <v>18200</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46300</v>
+        <v>46400</v>
       </c>
       <c r="E52" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F52" s="3">
-        <v>45000</v>
+        <v>45100</v>
       </c>
       <c r="G52" s="3">
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="H52" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="I52" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="J52" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="K52" s="3">
         <v>50300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>216100</v>
+        <v>216400</v>
       </c>
       <c r="E54" s="3">
-        <v>265900</v>
+        <v>266400</v>
       </c>
       <c r="F54" s="3">
-        <v>209400</v>
+        <v>209700</v>
       </c>
       <c r="G54" s="3">
-        <v>206000</v>
+        <v>206300</v>
       </c>
       <c r="H54" s="3">
-        <v>214900</v>
+        <v>215300</v>
       </c>
       <c r="I54" s="3">
-        <v>228500</v>
+        <v>228900</v>
       </c>
       <c r="J54" s="3">
-        <v>253100</v>
+        <v>253600</v>
       </c>
       <c r="K54" s="3">
         <v>277000</v>
@@ -2029,7 +2029,7 @@
         <v>9000</v>
       </c>
       <c r="I57" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="J57" s="3">
         <v>13700</v>
@@ -2044,16 +2044,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>63800</v>
+        <v>63900</v>
       </c>
       <c r="E58" s="3">
-        <v>50900</v>
+        <v>51000</v>
       </c>
       <c r="F58" s="3">
-        <v>76000</v>
+        <v>76100</v>
       </c>
       <c r="G58" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="H58" s="3">
         <v>12900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="E59" s="3">
-        <v>51300</v>
+        <v>51400</v>
       </c>
       <c r="F59" s="3">
-        <v>58300</v>
+        <v>58500</v>
       </c>
       <c r="G59" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="H59" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="I59" s="3">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="J59" s="3">
-        <v>54300</v>
+        <v>54400</v>
       </c>
       <c r="K59" s="3">
         <v>58000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>120100</v>
+        <v>120300</v>
       </c>
       <c r="E60" s="3">
-        <v>104400</v>
+        <v>104600</v>
       </c>
       <c r="F60" s="3">
-        <v>142000</v>
+        <v>142200</v>
       </c>
       <c r="G60" s="3">
-        <v>97100</v>
+        <v>97300</v>
       </c>
       <c r="H60" s="3">
-        <v>74900</v>
+        <v>75100</v>
       </c>
       <c r="I60" s="3">
-        <v>69400</v>
+        <v>69600</v>
       </c>
       <c r="J60" s="3">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="K60" s="3">
         <v>69900</v>
@@ -2167,7 +2167,7 @@
         <v>2800</v>
       </c>
       <c r="E62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F62" s="3">
         <v>2300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122900</v>
+        <v>123100</v>
       </c>
       <c r="E66" s="3">
-        <v>120400</v>
+        <v>120600</v>
       </c>
       <c r="F66" s="3">
-        <v>144300</v>
+        <v>144500</v>
       </c>
       <c r="G66" s="3">
-        <v>100500</v>
+        <v>100700</v>
       </c>
       <c r="H66" s="3">
-        <v>79400</v>
+        <v>79500</v>
       </c>
       <c r="I66" s="3">
-        <v>74900</v>
+        <v>75100</v>
       </c>
       <c r="J66" s="3">
-        <v>87700</v>
+        <v>87800</v>
       </c>
       <c r="K66" s="3">
         <v>77900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-917400</v>
+        <v>-919100</v>
       </c>
       <c r="E72" s="3">
-        <v>-865200</v>
+        <v>-866700</v>
       </c>
       <c r="F72" s="3">
-        <v>-818500</v>
+        <v>-819900</v>
       </c>
       <c r="G72" s="3">
-        <v>-778200</v>
+        <v>-779600</v>
       </c>
       <c r="H72" s="3">
-        <v>-748200</v>
+        <v>-749500</v>
       </c>
       <c r="I72" s="3">
-        <v>-729200</v>
+        <v>-730500</v>
       </c>
       <c r="J72" s="3">
-        <v>-717200</v>
+        <v>-718500</v>
       </c>
       <c r="K72" s="3">
         <v>-674000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>93200</v>
+        <v>93400</v>
       </c>
       <c r="E76" s="3">
-        <v>145500</v>
+        <v>145800</v>
       </c>
       <c r="F76" s="3">
-        <v>65100</v>
+        <v>65200</v>
       </c>
       <c r="G76" s="3">
-        <v>105500</v>
+        <v>105700</v>
       </c>
       <c r="H76" s="3">
-        <v>135600</v>
+        <v>135800</v>
       </c>
       <c r="I76" s="3">
-        <v>153500</v>
+        <v>153800</v>
       </c>
       <c r="J76" s="3">
-        <v>165400</v>
+        <v>165700</v>
       </c>
       <c r="K76" s="3">
         <v>199100</v>
@@ -2663,16 +2663,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-58700</v>
+        <v>-58800</v>
       </c>
       <c r="E81" s="3">
-        <v>-46700</v>
+        <v>-46800</v>
       </c>
       <c r="F81" s="3">
         <v>-40300</v>
       </c>
       <c r="G81" s="3">
-        <v>-30000</v>
+        <v>-30100</v>
       </c>
       <c r="H81" s="3">
         <v>-18000</v>
@@ -2681,7 +2681,7 @@
         <v>-12000</v>
       </c>
       <c r="J81" s="3">
-        <v>-35800</v>
+        <v>-35900</v>
       </c>
       <c r="K81" s="3">
         <v>-22900</v>
@@ -2710,22 +2710,22 @@
         <v>40900</v>
       </c>
       <c r="E83" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="F83" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="G83" s="3">
+        <v>44700</v>
+      </c>
+      <c r="H83" s="3">
         <v>44600</v>
       </c>
-      <c r="H83" s="3">
-        <v>44500</v>
-      </c>
       <c r="I83" s="3">
-        <v>42300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>44600</v>
+        <v>42400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2893,7 +2893,7 @@
         <v>-26600</v>
       </c>
       <c r="F89" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G89" s="3">
         <v>17600</v>
@@ -2949,7 +2949,7 @@
         <v>-19000</v>
       </c>
       <c r="J91" s="3">
-        <v>-27600</v>
+        <v>-27700</v>
       </c>
       <c r="K91" s="3">
         <v>-30600</v>
@@ -3027,19 +3027,19 @@
         <v>-25400</v>
       </c>
       <c r="F94" s="3">
-        <v>-47700</v>
+        <v>-47800</v>
       </c>
       <c r="G94" s="3">
         <v>-40800</v>
       </c>
       <c r="H94" s="3">
-        <v>-39100</v>
+        <v>-39200</v>
       </c>
       <c r="I94" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-40200</v>
+        <v>-37700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3188,10 +3188,10 @@
         <v>-1500</v>
       </c>
       <c r="E100" s="3">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="F100" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="G100" s="3">
         <v>25800</v>
@@ -3202,8 +3202,8 @@
       <c r="I100" s="3">
         <v>-12900</v>
       </c>
-      <c r="J100" s="3">
-        <v>12900</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3232,8 +3232,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3248,7 +3248,7 @@
         <v>-50300</v>
       </c>
       <c r="E102" s="3">
-        <v>62100</v>
+        <v>62200</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
@@ -3257,13 +3257,13 @@
         <v>2600</v>
       </c>
       <c r="H102" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="I102" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="J102" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="K102" s="3">
         <v>-10700</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E8" s="3">
         <v>150100</v>
       </c>
-      <c r="E8" s="3">
-        <v>162300</v>
-      </c>
       <c r="F8" s="3">
-        <v>181400</v>
+        <v>162400</v>
       </c>
       <c r="G8" s="3">
-        <v>194700</v>
+        <v>181500</v>
       </c>
       <c r="H8" s="3">
+        <v>194800</v>
+      </c>
+      <c r="I8" s="3">
         <v>214900</v>
       </c>
-      <c r="I8" s="3">
-        <v>249200</v>
-      </c>
       <c r="J8" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K8" s="3">
         <v>274400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>268700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>150700</v>
+        <v>143600</v>
       </c>
       <c r="E9" s="3">
-        <v>136600</v>
+        <v>150800</v>
       </c>
       <c r="F9" s="3">
+        <v>136700</v>
+      </c>
+      <c r="G9" s="3">
         <v>136000</v>
       </c>
-      <c r="G9" s="3">
-        <v>153000</v>
-      </c>
       <c r="H9" s="3">
-        <v>160500</v>
+        <v>153100</v>
       </c>
       <c r="I9" s="3">
+        <v>160600</v>
+      </c>
+      <c r="J9" s="3">
         <v>182000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>227000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>206700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41700</v>
       </c>
-      <c r="H10" s="3">
-        <v>54300</v>
-      </c>
       <c r="I10" s="3">
+        <v>54400</v>
+      </c>
+      <c r="J10" s="3">
         <v>67200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-9200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E15" s="3">
         <v>15700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>43000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>41800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>28800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>29200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E17" s="3">
         <v>209100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>210400</v>
       </c>
-      <c r="F17" s="3">
-        <v>221600</v>
-      </c>
       <c r="G17" s="3">
-        <v>226000</v>
+        <v>221700</v>
       </c>
       <c r="H17" s="3">
+        <v>226100</v>
+      </c>
+      <c r="I17" s="3">
         <v>232800</v>
       </c>
-      <c r="I17" s="3">
-        <v>260500</v>
-      </c>
       <c r="J17" s="3">
+        <v>260600</v>
+      </c>
+      <c r="K17" s="3">
         <v>309800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>291600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-59000</v>
       </c>
-      <c r="E18" s="3">
-        <v>-48000</v>
-      </c>
       <c r="F18" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-40200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,83 +1049,90 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>20100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-47200</v>
-      </c>
       <c r="F23" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-41000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-58800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-40300</v>
-      </c>
       <c r="G26" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-30100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-35900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-46800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-40300</v>
-      </c>
       <c r="G27" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-30100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-40300</v>
-      </c>
       <c r="G33" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-30100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-40300</v>
-      </c>
       <c r="G35" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-30100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,188 +1645,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E41" s="3">
         <v>22900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>7100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E43" s="3">
         <v>7500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E45" s="3">
         <v>12400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E46" s="3">
         <v>44200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>87800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>57700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E48" s="3">
         <v>110800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114700</v>
       </c>
-      <c r="F48" s="3">
-        <v>115300</v>
-      </c>
       <c r="G48" s="3">
+        <v>115400</v>
+      </c>
+      <c r="H48" s="3">
         <v>112700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>115200</v>
       </c>
-      <c r="I48" s="3">
-        <v>120500</v>
-      </c>
       <c r="J48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K48" s="3">
         <v>132100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>136900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E49" s="3">
         <v>15100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E52" s="3">
         <v>46400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>45100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>47900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>46600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>47400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>216400</v>
+        <v>242400</v>
       </c>
       <c r="E54" s="3">
+        <v>216500</v>
+      </c>
+      <c r="F54" s="3">
         <v>266400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>209700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>206300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>215300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>228900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>253600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,140 +2137,153 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E58" s="3">
         <v>63900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>38700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E59" s="3">
         <v>50100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E60" s="3">
         <v>120300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>104600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>97300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>69600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>69900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>56200</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>12900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2152,14 +2294,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>12900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2167,29 +2312,32 @@
         <v>2800</v>
       </c>
       <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E66" s="3">
         <v>123100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>120600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>144500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-969800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-919100</v>
       </c>
-      <c r="E72" s="3">
-        <v>-866700</v>
-      </c>
       <c r="F72" s="3">
-        <v>-819900</v>
+        <v>-866800</v>
       </c>
       <c r="G72" s="3">
+        <v>-820000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-779600</v>
       </c>
-      <c r="H72" s="3">
-        <v>-749500</v>
-      </c>
       <c r="I72" s="3">
-        <v>-730500</v>
+        <v>-749600</v>
       </c>
       <c r="J72" s="3">
+        <v>-730600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-718500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-674000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E76" s="3">
         <v>93400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>145800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>65200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>105700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>135800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>153800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>165700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>199100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-40300</v>
-      </c>
       <c r="G81" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-30100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E83" s="3">
         <v>40900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11600</v>
       </c>
-      <c r="G89" s="3">
-        <v>17600</v>
-      </c>
       <c r="H89" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I89" s="3">
         <v>14700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-40800</v>
-      </c>
       <c r="H94" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-39200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>114300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>36700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3232,43 +3480,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>62200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -726,7 +726,7 @@
         <v>162400</v>
       </c>
       <c r="G8" s="3">
-        <v>181500</v>
+        <v>181400</v>
       </c>
       <c r="H8" s="3">
         <v>194800</v>
@@ -735,7 +735,7 @@
         <v>214900</v>
       </c>
       <c r="J8" s="3">
-        <v>249300</v>
+        <v>249200</v>
       </c>
       <c r="K8" s="3">
         <v>274400</v>
@@ -987,7 +987,7 @@
         <v>221700</v>
       </c>
       <c r="H17" s="3">
-        <v>226100</v>
+        <v>226000</v>
       </c>
       <c r="I17" s="3">
         <v>232800</v>
@@ -1161,7 +1161,7 @@
         <v>-58700</v>
       </c>
       <c r="F23" s="3">
-        <v>-47300</v>
+        <v>-47200</v>
       </c>
       <c r="G23" s="3">
         <v>-41000</v>
@@ -1892,7 +1892,7 @@
         <v>114700</v>
       </c>
       <c r="G48" s="3">
-        <v>115400</v>
+        <v>115300</v>
       </c>
       <c r="H48" s="3">
         <v>112700</v>
@@ -1901,7 +1901,7 @@
         <v>115200</v>
       </c>
       <c r="J48" s="3">
-        <v>120600</v>
+        <v>120500</v>
       </c>
       <c r="K48" s="3">
         <v>132100</v>
@@ -2084,7 +2084,7 @@
         <v>242400</v>
       </c>
       <c r="E54" s="3">
-        <v>216500</v>
+        <v>216400</v>
       </c>
       <c r="F54" s="3">
         <v>266400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-969800</v>
+        <v>-969700</v>
       </c>
       <c r="E72" s="3">
         <v>-919100</v>
       </c>
       <c r="F72" s="3">
-        <v>-866800</v>
+        <v>-866700</v>
       </c>
       <c r="G72" s="3">
-        <v>-820000</v>
+        <v>-819900</v>
       </c>
       <c r="H72" s="3">
         <v>-779600</v>
       </c>
       <c r="I72" s="3">
-        <v>-749600</v>
+        <v>-749500</v>
       </c>
       <c r="J72" s="3">
-        <v>-730600</v>
+        <v>-730500</v>
       </c>
       <c r="K72" s="3">
         <v>-718500</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E8" s="3">
         <v>149800</v>
       </c>
-      <c r="E8" s="3">
-        <v>150100</v>
-      </c>
       <c r="F8" s="3">
-        <v>162400</v>
+        <v>162000</v>
       </c>
       <c r="G8" s="3">
-        <v>181400</v>
+        <v>181000</v>
       </c>
       <c r="H8" s="3">
-        <v>194800</v>
+        <v>194300</v>
       </c>
       <c r="I8" s="3">
-        <v>214900</v>
+        <v>214400</v>
       </c>
       <c r="J8" s="3">
-        <v>249200</v>
+        <v>248700</v>
       </c>
       <c r="K8" s="3">
         <v>274400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>143600</v>
+        <v>143200</v>
       </c>
       <c r="E9" s="3">
-        <v>150800</v>
+        <v>150400</v>
       </c>
       <c r="F9" s="3">
-        <v>136700</v>
+        <v>136400</v>
       </c>
       <c r="G9" s="3">
-        <v>136000</v>
+        <v>135700</v>
       </c>
       <c r="H9" s="3">
-        <v>153100</v>
+        <v>152700</v>
       </c>
       <c r="I9" s="3">
-        <v>160600</v>
+        <v>160200</v>
       </c>
       <c r="J9" s="3">
-        <v>182000</v>
+        <v>181600</v>
       </c>
       <c r="K9" s="3">
         <v>227000</v>
@@ -789,19 +789,19 @@
         <v>-700</v>
       </c>
       <c r="F10" s="3">
-        <v>25700</v>
+        <v>25600</v>
       </c>
       <c r="G10" s="3">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="H10" s="3">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="I10" s="3">
-        <v>54400</v>
+        <v>54200</v>
       </c>
       <c r="J10" s="3">
-        <v>67200</v>
+        <v>67100</v>
       </c>
       <c r="K10" s="3">
         <v>47400</v>
@@ -936,19 +936,19 @@
         <v>15700</v>
       </c>
       <c r="F15" s="3">
-        <v>43000</v>
+        <v>42900</v>
       </c>
       <c r="G15" s="3">
-        <v>41800</v>
+        <v>41700</v>
       </c>
       <c r="H15" s="3">
-        <v>28800</v>
+        <v>28700</v>
       </c>
       <c r="I15" s="3">
         <v>29200</v>
       </c>
       <c r="J15" s="3">
-        <v>30600</v>
+        <v>30500</v>
       </c>
       <c r="K15" s="3">
         <v>32600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196700</v>
+        <v>196300</v>
       </c>
       <c r="E17" s="3">
-        <v>209100</v>
+        <v>208700</v>
       </c>
       <c r="F17" s="3">
-        <v>210400</v>
+        <v>209900</v>
       </c>
       <c r="G17" s="3">
-        <v>221700</v>
+        <v>221200</v>
       </c>
       <c r="H17" s="3">
-        <v>226000</v>
+        <v>225500</v>
       </c>
       <c r="I17" s="3">
-        <v>232800</v>
+        <v>232300</v>
       </c>
       <c r="J17" s="3">
-        <v>260600</v>
+        <v>260000</v>
       </c>
       <c r="K17" s="3">
         <v>309800</v>
@@ -1008,19 +1008,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47000</v>
+        <v>-46900</v>
       </c>
       <c r="E18" s="3">
-        <v>-59000</v>
+        <v>-58900</v>
       </c>
       <c r="F18" s="3">
-        <v>-48100</v>
+        <v>-47900</v>
       </c>
       <c r="G18" s="3">
-        <v>-40200</v>
+        <v>-40100</v>
       </c>
       <c r="H18" s="3">
-        <v>-31300</v>
+        <v>-31200</v>
       </c>
       <c r="I18" s="3">
         <v>-17900</v>
@@ -1104,10 +1104,10 @@
         <v>12900</v>
       </c>
       <c r="I21" s="3">
-        <v>26600</v>
+        <v>26500</v>
       </c>
       <c r="J21" s="3">
-        <v>30800</v>
+        <v>30700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1155,22 +1155,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-51200</v>
+        <v>-51100</v>
       </c>
       <c r="E23" s="3">
-        <v>-58700</v>
+        <v>-58500</v>
       </c>
       <c r="F23" s="3">
-        <v>-47200</v>
+        <v>-47100</v>
       </c>
       <c r="G23" s="3">
-        <v>-41000</v>
+        <v>-40900</v>
       </c>
       <c r="H23" s="3">
-        <v>-31800</v>
+        <v>-31700</v>
       </c>
       <c r="I23" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="J23" s="3">
         <v>-11600</v>
@@ -1254,19 +1254,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51200</v>
+        <v>-51100</v>
       </c>
       <c r="E26" s="3">
-        <v>-58800</v>
+        <v>-58600</v>
       </c>
       <c r="F26" s="3">
-        <v>-46800</v>
+        <v>-46700</v>
       </c>
       <c r="G26" s="3">
-        <v>-40400</v>
+        <v>-40300</v>
       </c>
       <c r="H26" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="I26" s="3">
         <v>-18000</v>
@@ -1287,19 +1287,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-51200</v>
+        <v>-51100</v>
       </c>
       <c r="E27" s="3">
-        <v>-58800</v>
+        <v>-58600</v>
       </c>
       <c r="F27" s="3">
-        <v>-46800</v>
+        <v>-46700</v>
       </c>
       <c r="G27" s="3">
-        <v>-40400</v>
+        <v>-40300</v>
       </c>
       <c r="H27" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="I27" s="3">
         <v>-18000</v>
@@ -1485,19 +1485,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-51200</v>
+        <v>-51100</v>
       </c>
       <c r="E33" s="3">
-        <v>-58800</v>
+        <v>-58600</v>
       </c>
       <c r="F33" s="3">
-        <v>-46800</v>
+        <v>-46700</v>
       </c>
       <c r="G33" s="3">
-        <v>-40400</v>
+        <v>-40300</v>
       </c>
       <c r="H33" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="I33" s="3">
         <v>-18000</v>
@@ -1551,19 +1551,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-51200</v>
+        <v>-51100</v>
       </c>
       <c r="E35" s="3">
-        <v>-58800</v>
+        <v>-58600</v>
       </c>
       <c r="F35" s="3">
-        <v>-46800</v>
+        <v>-46700</v>
       </c>
       <c r="G35" s="3">
-        <v>-40400</v>
+        <v>-40300</v>
       </c>
       <c r="H35" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="I35" s="3">
         <v>-18000</v>
@@ -1652,16 +1652,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="E41" s="3">
         <v>22900</v>
       </c>
       <c r="F41" s="3">
-        <v>75400</v>
+        <v>75300</v>
       </c>
       <c r="G41" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="H41" s="3">
         <v>10600</v>
@@ -1670,7 +1670,7 @@
         <v>8000</v>
       </c>
       <c r="J41" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="K41" s="3">
         <v>37200</v>
@@ -1724,10 +1724,10 @@
         <v>7500</v>
       </c>
       <c r="F43" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="G43" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H43" s="3">
         <v>8800</v>
@@ -1751,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E44" s="3">
         <v>1300</v>
@@ -1784,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="E45" s="3">
         <v>12400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68200</v>
+        <v>68100</v>
       </c>
       <c r="E46" s="3">
-        <v>44200</v>
+        <v>44100</v>
       </c>
       <c r="F46" s="3">
-        <v>87800</v>
+        <v>87600</v>
       </c>
       <c r="G46" s="3">
         <v>27100</v>
       </c>
       <c r="H46" s="3">
-        <v>25000</v>
+        <v>24900</v>
       </c>
       <c r="I46" s="3">
-        <v>31300</v>
+        <v>31200</v>
       </c>
       <c r="J46" s="3">
-        <v>42700</v>
+        <v>42600</v>
       </c>
       <c r="K46" s="3">
         <v>57700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>117600</v>
+        <v>117300</v>
       </c>
       <c r="E48" s="3">
-        <v>110800</v>
+        <v>110600</v>
       </c>
       <c r="F48" s="3">
-        <v>114700</v>
+        <v>114400</v>
       </c>
       <c r="G48" s="3">
-        <v>115300</v>
+        <v>115100</v>
       </c>
       <c r="H48" s="3">
-        <v>112700</v>
+        <v>112500</v>
       </c>
       <c r="I48" s="3">
-        <v>115200</v>
+        <v>115000</v>
       </c>
       <c r="J48" s="3">
-        <v>120500</v>
+        <v>120300</v>
       </c>
       <c r="K48" s="3">
         <v>132100</v>
@@ -1919,7 +1919,7 @@
         <v>12900</v>
       </c>
       <c r="E49" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="3">
         <v>19700</v>
@@ -1928,10 +1928,10 @@
         <v>22100</v>
       </c>
       <c r="H49" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="I49" s="3">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="J49" s="3">
         <v>18200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43600</v>
+        <v>43500</v>
       </c>
       <c r="E52" s="3">
-        <v>46400</v>
+        <v>46300</v>
       </c>
       <c r="F52" s="3">
-        <v>44200</v>
+        <v>44100</v>
       </c>
       <c r="G52" s="3">
-        <v>45100</v>
+        <v>45000</v>
       </c>
       <c r="H52" s="3">
-        <v>47900</v>
+        <v>47800</v>
       </c>
       <c r="I52" s="3">
-        <v>46600</v>
+        <v>46500</v>
       </c>
       <c r="J52" s="3">
-        <v>47400</v>
+        <v>47300</v>
       </c>
       <c r="K52" s="3">
         <v>49200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>242400</v>
+        <v>241900</v>
       </c>
       <c r="E54" s="3">
-        <v>216400</v>
+        <v>216000</v>
       </c>
       <c r="F54" s="3">
-        <v>266400</v>
+        <v>265800</v>
       </c>
       <c r="G54" s="3">
-        <v>209700</v>
+        <v>209300</v>
       </c>
       <c r="H54" s="3">
-        <v>206300</v>
+        <v>205900</v>
       </c>
       <c r="I54" s="3">
-        <v>215300</v>
+        <v>214800</v>
       </c>
       <c r="J54" s="3">
-        <v>228900</v>
+        <v>228300</v>
       </c>
       <c r="K54" s="3">
         <v>253600</v>
@@ -2144,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="3">
         <v>6400</v>
@@ -2162,7 +2162,7 @@
         <v>9000</v>
       </c>
       <c r="J57" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="K57" s="3">
         <v>13700</v>
@@ -2177,19 +2177,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>48600</v>
+        <v>48500</v>
       </c>
       <c r="E58" s="3">
-        <v>63900</v>
+        <v>63700</v>
       </c>
       <c r="F58" s="3">
-        <v>51000</v>
+        <v>50800</v>
       </c>
       <c r="G58" s="3">
-        <v>76100</v>
+        <v>76000</v>
       </c>
       <c r="H58" s="3">
-        <v>38700</v>
+        <v>38600</v>
       </c>
       <c r="I58" s="3">
         <v>12900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47100</v>
+        <v>47000</v>
       </c>
       <c r="E59" s="3">
-        <v>50100</v>
+        <v>50000</v>
       </c>
       <c r="F59" s="3">
-        <v>51400</v>
+        <v>51300</v>
       </c>
       <c r="G59" s="3">
-        <v>58500</v>
+        <v>58300</v>
       </c>
       <c r="H59" s="3">
-        <v>54300</v>
+        <v>54200</v>
       </c>
       <c r="I59" s="3">
-        <v>53200</v>
+        <v>53000</v>
       </c>
       <c r="J59" s="3">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="K59" s="3">
         <v>54400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="E60" s="3">
-        <v>120300</v>
+        <v>120100</v>
       </c>
       <c r="F60" s="3">
-        <v>104600</v>
+        <v>104300</v>
       </c>
       <c r="G60" s="3">
-        <v>142200</v>
+        <v>141900</v>
       </c>
       <c r="H60" s="3">
-        <v>97300</v>
+        <v>97100</v>
       </c>
       <c r="I60" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="J60" s="3">
-        <v>69600</v>
+        <v>69400</v>
       </c>
       <c r="K60" s="3">
         <v>68200</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56200</v>
+        <v>56100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2312,16 +2312,16 @@
         <v>2800</v>
       </c>
       <c r="E62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G62" s="3">
         <v>2300</v>
       </c>
       <c r="H62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I62" s="3">
         <v>4400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>159800</v>
+        <v>159500</v>
       </c>
       <c r="E66" s="3">
-        <v>123100</v>
+        <v>122800</v>
       </c>
       <c r="F66" s="3">
-        <v>120600</v>
+        <v>120400</v>
       </c>
       <c r="G66" s="3">
-        <v>144500</v>
+        <v>144200</v>
       </c>
       <c r="H66" s="3">
-        <v>100700</v>
+        <v>100400</v>
       </c>
       <c r="I66" s="3">
-        <v>79500</v>
+        <v>79300</v>
       </c>
       <c r="J66" s="3">
-        <v>75100</v>
+        <v>74900</v>
       </c>
       <c r="K66" s="3">
         <v>87800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-969700</v>
+        <v>-967500</v>
       </c>
       <c r="E72" s="3">
-        <v>-919100</v>
+        <v>-917000</v>
       </c>
       <c r="F72" s="3">
-        <v>-866700</v>
+        <v>-864800</v>
       </c>
       <c r="G72" s="3">
-        <v>-819900</v>
+        <v>-818100</v>
       </c>
       <c r="H72" s="3">
-        <v>-779600</v>
+        <v>-777800</v>
       </c>
       <c r="I72" s="3">
-        <v>-749500</v>
+        <v>-747800</v>
       </c>
       <c r="J72" s="3">
-        <v>-730500</v>
+        <v>-728900</v>
       </c>
       <c r="K72" s="3">
         <v>-718500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82600</v>
+        <v>82400</v>
       </c>
       <c r="E76" s="3">
-        <v>93400</v>
+        <v>93100</v>
       </c>
       <c r="F76" s="3">
-        <v>145800</v>
+        <v>145400</v>
       </c>
       <c r="G76" s="3">
-        <v>65200</v>
+        <v>65100</v>
       </c>
       <c r="H76" s="3">
-        <v>105700</v>
+        <v>105400</v>
       </c>
       <c r="I76" s="3">
-        <v>135800</v>
+        <v>135500</v>
       </c>
       <c r="J76" s="3">
-        <v>153800</v>
+        <v>153400</v>
       </c>
       <c r="K76" s="3">
         <v>165700</v>
@@ -2857,19 +2857,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-51200</v>
+        <v>-51100</v>
       </c>
       <c r="E81" s="3">
-        <v>-58800</v>
+        <v>-58600</v>
       </c>
       <c r="F81" s="3">
-        <v>-46800</v>
+        <v>-46700</v>
       </c>
       <c r="G81" s="3">
-        <v>-40400</v>
+        <v>-40300</v>
       </c>
       <c r="H81" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="I81" s="3">
         <v>-18000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="E83" s="3">
-        <v>40900</v>
+        <v>40800</v>
       </c>
       <c r="F83" s="3">
-        <v>43000</v>
+        <v>42900</v>
       </c>
       <c r="G83" s="3">
-        <v>41800</v>
+        <v>41700</v>
       </c>
       <c r="H83" s="3">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="I83" s="3">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="J83" s="3">
-        <v>42400</v>
+        <v>42300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,19 +3103,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-20700</v>
+        <v>-20600</v>
       </c>
       <c r="E89" s="3">
-        <v>-23700</v>
+        <v>-23600</v>
       </c>
       <c r="F89" s="3">
         <v>-26600</v>
       </c>
       <c r="G89" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="H89" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="I89" s="3">
         <v>14700</v>
@@ -3151,7 +3151,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17600</v>
+        <v>-17500</v>
       </c>
       <c r="E91" s="3">
         <v>-22100</v>
@@ -3250,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29700</v>
+        <v>-29600</v>
       </c>
       <c r="E94" s="3">
         <v>-25100</v>
@@ -3259,16 +3259,16 @@
         <v>-25400</v>
       </c>
       <c r="G94" s="3">
-        <v>-47800</v>
+        <v>-47700</v>
       </c>
       <c r="H94" s="3">
-        <v>-40900</v>
+        <v>-40800</v>
       </c>
       <c r="I94" s="3">
-        <v>-39200</v>
+        <v>-39100</v>
       </c>
       <c r="J94" s="3">
-        <v>-37700</v>
+        <v>-37600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,19 +3430,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>58600</v>
+        <v>58500</v>
       </c>
       <c r="E100" s="3">
         <v>-1500</v>
       </c>
       <c r="F100" s="3">
-        <v>114300</v>
+        <v>114000</v>
       </c>
       <c r="G100" s="3">
-        <v>36700</v>
+        <v>36600</v>
       </c>
       <c r="H100" s="3">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="I100" s="3">
         <v>12900</v>
@@ -3496,13 +3496,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="E102" s="3">
-        <v>-50300</v>
+        <v>-50200</v>
       </c>
       <c r="F102" s="3">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
@@ -3511,10 +3511,10 @@
         <v>2600</v>
       </c>
       <c r="I102" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="J102" s="3">
-        <v>-17600</v>
+        <v>-17500</v>
       </c>
       <c r="K102" s="3">
         <v>-6500</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>149400</v>
+        <v>137700</v>
       </c>
       <c r="E8" s="3">
-        <v>149800</v>
+        <v>149600</v>
       </c>
       <c r="F8" s="3">
-        <v>162000</v>
+        <v>149900</v>
       </c>
       <c r="G8" s="3">
-        <v>181000</v>
+        <v>162100</v>
       </c>
       <c r="H8" s="3">
-        <v>194300</v>
+        <v>181200</v>
       </c>
       <c r="I8" s="3">
-        <v>214400</v>
+        <v>194500</v>
       </c>
       <c r="J8" s="3">
+        <v>214600</v>
+      </c>
+      <c r="K8" s="3">
         <v>248700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>268700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>143200</v>
+        <v>123600</v>
       </c>
       <c r="E9" s="3">
-        <v>150400</v>
+        <v>143300</v>
       </c>
       <c r="F9" s="3">
-        <v>136400</v>
+        <v>150500</v>
       </c>
       <c r="G9" s="3">
-        <v>135700</v>
+        <v>136500</v>
       </c>
       <c r="H9" s="3">
-        <v>152700</v>
+        <v>135800</v>
       </c>
       <c r="I9" s="3">
-        <v>160200</v>
+        <v>152800</v>
       </c>
       <c r="J9" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K9" s="3">
         <v>181600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>227000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>206700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E10" s="3">
         <v>6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-700</v>
       </c>
-      <c r="F10" s="3">
-        <v>25600</v>
-      </c>
       <c r="G10" s="3">
+        <v>25700</v>
+      </c>
+      <c r="H10" s="3">
         <v>45300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41600</v>
       </c>
-      <c r="I10" s="3">
-        <v>54200</v>
-      </c>
       <c r="J10" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K10" s="3">
         <v>67100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-4100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-9200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -914,51 +933,57 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E15" s="3">
         <v>9200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>15700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>42900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>41700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>28700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>29200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196300</v>
+        <v>167900</v>
       </c>
       <c r="E17" s="3">
-        <v>208700</v>
+        <v>196400</v>
       </c>
       <c r="F17" s="3">
-        <v>209900</v>
+        <v>208800</v>
       </c>
       <c r="G17" s="3">
-        <v>221200</v>
+        <v>210100</v>
       </c>
       <c r="H17" s="3">
-        <v>225500</v>
+        <v>221400</v>
       </c>
       <c r="I17" s="3">
-        <v>232300</v>
+        <v>225700</v>
       </c>
       <c r="J17" s="3">
+        <v>232500</v>
+      </c>
+      <c r="K17" s="3">
         <v>260000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>309800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>291600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46900</v>
       </c>
-      <c r="E18" s="3">
-        <v>-58900</v>
-      </c>
       <c r="F18" s="3">
-        <v>-47900</v>
+        <v>-59000</v>
       </c>
       <c r="G18" s="3">
-        <v>-40100</v>
+        <v>-48000</v>
       </c>
       <c r="H18" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-31200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,91 +1082,98 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30700</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-58500</v>
-      </c>
       <c r="F23" s="3">
-        <v>-47100</v>
+        <v>-58600</v>
       </c>
       <c r="G23" s="3">
-        <v>-40900</v>
+        <v>-47200</v>
       </c>
       <c r="H23" s="3">
-        <v>-31700</v>
+        <v>-41000</v>
       </c>
       <c r="I23" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-17900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-58600</v>
-      </c>
       <c r="F26" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-46700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-35900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-58600</v>
-      </c>
       <c r="F27" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-46700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-58600</v>
-      </c>
       <c r="F33" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-46700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-58600</v>
-      </c>
       <c r="F35" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-46700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,49 +1731,53 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31100</v>
+        <v>20300</v>
       </c>
       <c r="E41" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F41" s="3">
         <v>22900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>7100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1705,147 +1794,162 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E43" s="3">
         <v>13700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E46" s="3">
         <v>68100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44100</v>
       </c>
-      <c r="F46" s="3">
-        <v>87600</v>
-      </c>
       <c r="G46" s="3">
+        <v>87700</v>
+      </c>
+      <c r="H46" s="3">
         <v>27100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>57700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>117300</v>
+        <v>105200</v>
       </c>
       <c r="E48" s="3">
-        <v>110600</v>
+        <v>117400</v>
       </c>
       <c r="F48" s="3">
-        <v>114400</v>
+        <v>110700</v>
       </c>
       <c r="G48" s="3">
+        <v>114500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>115200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>112600</v>
+      </c>
+      <c r="J48" s="3">
         <v>115100</v>
       </c>
-      <c r="H48" s="3">
-        <v>112500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>115000</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>120300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>132100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>136900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E49" s="3">
         <v>12900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22100</v>
       </c>
-      <c r="H49" s="3">
-        <v>20600</v>
-      </c>
       <c r="I49" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J49" s="3">
         <v>22100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43500</v>
+        <v>43000</v>
       </c>
       <c r="E52" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F52" s="3">
         <v>46300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>44100</v>
       </c>
-      <c r="G52" s="3">
-        <v>45000</v>
-      </c>
       <c r="H52" s="3">
-        <v>47800</v>
+        <v>45100</v>
       </c>
       <c r="I52" s="3">
-        <v>46500</v>
+        <v>47900</v>
       </c>
       <c r="J52" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K52" s="3">
         <v>47300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>241900</v>
+        <v>207200</v>
       </c>
       <c r="E54" s="3">
-        <v>216000</v>
+        <v>242000</v>
       </c>
       <c r="F54" s="3">
-        <v>265800</v>
+        <v>216100</v>
       </c>
       <c r="G54" s="3">
-        <v>209300</v>
+        <v>266000</v>
       </c>
       <c r="H54" s="3">
-        <v>205900</v>
+        <v>209400</v>
       </c>
       <c r="I54" s="3">
-        <v>214800</v>
+        <v>206000</v>
       </c>
       <c r="J54" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K54" s="3">
         <v>228300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>253600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,64 +2267,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E58" s="3">
         <v>48500</v>
       </c>
-      <c r="E58" s="3">
-        <v>63700</v>
-      </c>
       <c r="F58" s="3">
-        <v>50800</v>
+        <v>63800</v>
       </c>
       <c r="G58" s="3">
+        <v>50900</v>
+      </c>
+      <c r="H58" s="3">
         <v>76000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>38600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2203,90 +2336,99 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E59" s="3">
         <v>47000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51300</v>
       </c>
-      <c r="G59" s="3">
-        <v>58300</v>
-      </c>
       <c r="H59" s="3">
+        <v>58400</v>
+      </c>
+      <c r="I59" s="3">
         <v>54200</v>
       </c>
-      <c r="I59" s="3">
-        <v>53000</v>
-      </c>
       <c r="J59" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K59" s="3">
         <v>57900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100500</v>
+        <v>101000</v>
       </c>
       <c r="E60" s="3">
-        <v>120100</v>
+        <v>100600</v>
       </c>
       <c r="F60" s="3">
-        <v>104300</v>
+        <v>120200</v>
       </c>
       <c r="G60" s="3">
-        <v>141900</v>
+        <v>104400</v>
       </c>
       <c r="H60" s="3">
-        <v>97100</v>
+        <v>142000</v>
       </c>
       <c r="I60" s="3">
-        <v>74900</v>
+        <v>97200</v>
       </c>
       <c r="J60" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K60" s="3">
         <v>69400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56100</v>
+        <v>56300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>56200</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>12900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2297,14 +2439,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>12900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2312,32 +2457,35 @@
         <v>2800</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
-        <v>3300</v>
-      </c>
       <c r="I62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J62" s="3">
         <v>4400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>159500</v>
+        <v>160200</v>
       </c>
       <c r="E66" s="3">
-        <v>122800</v>
+        <v>159600</v>
       </c>
       <c r="F66" s="3">
+        <v>122900</v>
+      </c>
+      <c r="G66" s="3">
         <v>120400</v>
       </c>
-      <c r="G66" s="3">
-        <v>144200</v>
-      </c>
       <c r="H66" s="3">
-        <v>100400</v>
+        <v>144300</v>
       </c>
       <c r="I66" s="3">
-        <v>79300</v>
+        <v>100500</v>
       </c>
       <c r="J66" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K66" s="3">
         <v>74900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-967500</v>
+        <v>-1003700</v>
       </c>
       <c r="E72" s="3">
-        <v>-917000</v>
+        <v>-968300</v>
       </c>
       <c r="F72" s="3">
-        <v>-864800</v>
+        <v>-917700</v>
       </c>
       <c r="G72" s="3">
-        <v>-818100</v>
+        <v>-865500</v>
       </c>
       <c r="H72" s="3">
-        <v>-777800</v>
+        <v>-818700</v>
       </c>
       <c r="I72" s="3">
-        <v>-747800</v>
+        <v>-778400</v>
       </c>
       <c r="J72" s="3">
+        <v>-748400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-728900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-718500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-674000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82400</v>
+        <v>47000</v>
       </c>
       <c r="E76" s="3">
-        <v>93100</v>
+        <v>82500</v>
       </c>
       <c r="F76" s="3">
-        <v>145400</v>
+        <v>93200</v>
       </c>
       <c r="G76" s="3">
+        <v>145600</v>
+      </c>
+      <c r="H76" s="3">
         <v>65100</v>
       </c>
-      <c r="H76" s="3">
-        <v>105400</v>
-      </c>
       <c r="I76" s="3">
-        <v>135500</v>
+        <v>105500</v>
       </c>
       <c r="J76" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K76" s="3">
         <v>153400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>165700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>199100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-58600</v>
-      </c>
       <c r="F81" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-46700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38500</v>
+        <v>35700</v>
       </c>
       <c r="E83" s="3">
-        <v>40800</v>
+        <v>38600</v>
       </c>
       <c r="F83" s="3">
+        <v>40900</v>
+      </c>
+      <c r="G83" s="3">
         <v>42900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42300</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-23600</v>
-      </c>
       <c r="F89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-26600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-47700</v>
-      </c>
       <c r="H94" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-40800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37600</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>58500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>114000</v>
-      </c>
       <c r="G100" s="3">
-        <v>36600</v>
+        <v>114100</v>
       </c>
       <c r="H100" s="3">
-        <v>25700</v>
+        <v>36700</v>
       </c>
       <c r="I100" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J100" s="3">
         <v>12900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12900</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3483,46 +3731,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8200</v>
+        <v>-10900</v>
       </c>
       <c r="E102" s="3">
-        <v>-50200</v>
+        <v>8300</v>
       </c>
       <c r="F102" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="G102" s="3">
         <v>62100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>137700</v>
+        <v>137200</v>
       </c>
       <c r="E8" s="3">
-        <v>149600</v>
+        <v>149000</v>
       </c>
       <c r="F8" s="3">
-        <v>149900</v>
+        <v>149300</v>
       </c>
       <c r="G8" s="3">
-        <v>162100</v>
+        <v>161500</v>
       </c>
       <c r="H8" s="3">
-        <v>181200</v>
+        <v>180500</v>
       </c>
       <c r="I8" s="3">
-        <v>194500</v>
+        <v>193800</v>
       </c>
       <c r="J8" s="3">
-        <v>214600</v>
+        <v>213800</v>
       </c>
       <c r="K8" s="3">
         <v>248700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>123600</v>
+        <v>123200</v>
       </c>
       <c r="E9" s="3">
-        <v>143300</v>
+        <v>142800</v>
       </c>
       <c r="F9" s="3">
-        <v>150500</v>
+        <v>150000</v>
       </c>
       <c r="G9" s="3">
-        <v>136500</v>
+        <v>136000</v>
       </c>
       <c r="H9" s="3">
-        <v>135800</v>
+        <v>135400</v>
       </c>
       <c r="I9" s="3">
-        <v>152800</v>
+        <v>152300</v>
       </c>
       <c r="J9" s="3">
-        <v>160300</v>
+        <v>159700</v>
       </c>
       <c r="K9" s="3">
         <v>181600</v>
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="E10" s="3">
         <v>6200</v>
@@ -801,16 +801,16 @@
         <v>-700</v>
       </c>
       <c r="G10" s="3">
-        <v>25700</v>
+        <v>25600</v>
       </c>
       <c r="H10" s="3">
-        <v>45300</v>
+        <v>45200</v>
       </c>
       <c r="I10" s="3">
-        <v>41600</v>
+        <v>41500</v>
       </c>
       <c r="J10" s="3">
-        <v>54300</v>
+        <v>54100</v>
       </c>
       <c r="K10" s="3">
         <v>67100</v>
@@ -958,19 +958,19 @@
         <v>9200</v>
       </c>
       <c r="F15" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="G15" s="3">
-        <v>42900</v>
+        <v>42800</v>
       </c>
       <c r="H15" s="3">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="I15" s="3">
-        <v>28700</v>
+        <v>28600</v>
       </c>
       <c r="J15" s="3">
-        <v>29200</v>
+        <v>29100</v>
       </c>
       <c r="K15" s="3">
         <v>30500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>167900</v>
+        <v>167300</v>
       </c>
       <c r="E17" s="3">
-        <v>196400</v>
+        <v>195700</v>
       </c>
       <c r="F17" s="3">
-        <v>208800</v>
+        <v>208100</v>
       </c>
       <c r="G17" s="3">
-        <v>210100</v>
+        <v>209400</v>
       </c>
       <c r="H17" s="3">
-        <v>221400</v>
+        <v>220600</v>
       </c>
       <c r="I17" s="3">
-        <v>225700</v>
+        <v>224900</v>
       </c>
       <c r="J17" s="3">
-        <v>232500</v>
+        <v>231600</v>
       </c>
       <c r="K17" s="3">
         <v>260000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-30200</v>
+        <v>-30100</v>
       </c>
       <c r="E18" s="3">
-        <v>-46900</v>
+        <v>-46700</v>
       </c>
       <c r="F18" s="3">
-        <v>-59000</v>
+        <v>-58700</v>
       </c>
       <c r="G18" s="3">
-        <v>-48000</v>
+        <v>-47800</v>
       </c>
       <c r="H18" s="3">
-        <v>-40200</v>
+        <v>-40000</v>
       </c>
       <c r="I18" s="3">
-        <v>-31200</v>
+        <v>-31100</v>
       </c>
       <c r="J18" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="K18" s="3">
         <v>-11300</v>
@@ -1128,19 +1128,19 @@
         <v>5600</v>
       </c>
       <c r="E21" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="F21" s="3">
-        <v>-16400</v>
+        <v>-16300</v>
       </c>
       <c r="G21" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H21" s="3">
         <v>1500</v>
       </c>
       <c r="I21" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="J21" s="3">
         <v>26500</v>
@@ -1197,22 +1197,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="E23" s="3">
-        <v>-51100</v>
+        <v>-50900</v>
       </c>
       <c r="F23" s="3">
-        <v>-58600</v>
+        <v>-58400</v>
       </c>
       <c r="G23" s="3">
-        <v>-47200</v>
+        <v>-47000</v>
       </c>
       <c r="H23" s="3">
-        <v>-41000</v>
+        <v>-40800</v>
       </c>
       <c r="I23" s="3">
-        <v>-31800</v>
+        <v>-31700</v>
       </c>
       <c r="J23" s="3">
         <v>-17900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35500</v>
+        <v>-35400</v>
       </c>
       <c r="E26" s="3">
-        <v>-51100</v>
+        <v>-51000</v>
       </c>
       <c r="F26" s="3">
-        <v>-58700</v>
+        <v>-58500</v>
       </c>
       <c r="G26" s="3">
-        <v>-46700</v>
+        <v>-46600</v>
       </c>
       <c r="H26" s="3">
-        <v>-40300</v>
+        <v>-40200</v>
       </c>
       <c r="I26" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="J26" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="K26" s="3">
         <v>-12000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35500</v>
+        <v>-35400</v>
       </c>
       <c r="E27" s="3">
-        <v>-51100</v>
+        <v>-51000</v>
       </c>
       <c r="F27" s="3">
-        <v>-58700</v>
+        <v>-58500</v>
       </c>
       <c r="G27" s="3">
-        <v>-46700</v>
+        <v>-46600</v>
       </c>
       <c r="H27" s="3">
-        <v>-40300</v>
+        <v>-40200</v>
       </c>
       <c r="I27" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="J27" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="K27" s="3">
         <v>-12000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35500</v>
+        <v>-35400</v>
       </c>
       <c r="E33" s="3">
-        <v>-51100</v>
+        <v>-51000</v>
       </c>
       <c r="F33" s="3">
-        <v>-58700</v>
+        <v>-58500</v>
       </c>
       <c r="G33" s="3">
-        <v>-46700</v>
+        <v>-46600</v>
       </c>
       <c r="H33" s="3">
-        <v>-40300</v>
+        <v>-40200</v>
       </c>
       <c r="I33" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="J33" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="K33" s="3">
         <v>-12000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35500</v>
+        <v>-35400</v>
       </c>
       <c r="E35" s="3">
-        <v>-51100</v>
+        <v>-51000</v>
       </c>
       <c r="F35" s="3">
-        <v>-58700</v>
+        <v>-58500</v>
       </c>
       <c r="G35" s="3">
-        <v>-46700</v>
+        <v>-46600</v>
       </c>
       <c r="H35" s="3">
-        <v>-40300</v>
+        <v>-40200</v>
       </c>
       <c r="I35" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="J35" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="K35" s="3">
         <v>-12000</v>
@@ -1738,16 +1738,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="E41" s="3">
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="F41" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="G41" s="3">
-        <v>75300</v>
+        <v>75100</v>
       </c>
       <c r="H41" s="3">
         <v>13600</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1810,7 +1810,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="E43" s="3">
         <v>13700</v>
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="E45" s="3">
         <v>14600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47800</v>
+        <v>47600</v>
       </c>
       <c r="E46" s="3">
-        <v>68100</v>
+        <v>67900</v>
       </c>
       <c r="F46" s="3">
-        <v>44100</v>
+        <v>44000</v>
       </c>
       <c r="G46" s="3">
-        <v>87700</v>
+        <v>87400</v>
       </c>
       <c r="H46" s="3">
-        <v>27100</v>
+        <v>27000</v>
       </c>
       <c r="I46" s="3">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="J46" s="3">
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="K46" s="3">
         <v>42600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105200</v>
+        <v>104800</v>
       </c>
       <c r="E48" s="3">
-        <v>117400</v>
+        <v>117000</v>
       </c>
       <c r="F48" s="3">
-        <v>110700</v>
+        <v>110300</v>
       </c>
       <c r="G48" s="3">
-        <v>114500</v>
+        <v>114100</v>
       </c>
       <c r="H48" s="3">
-        <v>115200</v>
+        <v>114800</v>
       </c>
       <c r="I48" s="3">
-        <v>112600</v>
+        <v>112200</v>
       </c>
       <c r="J48" s="3">
-        <v>115100</v>
+        <v>114600</v>
       </c>
       <c r="K48" s="3">
         <v>120300</v>
@@ -2026,7 +2026,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="E49" s="3">
         <v>12900</v>
@@ -2035,16 +2035,16 @@
         <v>15000</v>
       </c>
       <c r="G49" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="H49" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="I49" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="J49" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="K49" s="3">
         <v>18200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43000</v>
+        <v>42900</v>
       </c>
       <c r="E52" s="3">
-        <v>43600</v>
+        <v>43400</v>
       </c>
       <c r="F52" s="3">
-        <v>46300</v>
+        <v>46100</v>
       </c>
       <c r="G52" s="3">
-        <v>44100</v>
+        <v>44000</v>
       </c>
       <c r="H52" s="3">
-        <v>45100</v>
+        <v>44900</v>
       </c>
       <c r="I52" s="3">
-        <v>47900</v>
+        <v>47700</v>
       </c>
       <c r="J52" s="3">
-        <v>46600</v>
+        <v>46400</v>
       </c>
       <c r="K52" s="3">
         <v>47300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>207200</v>
+        <v>206500</v>
       </c>
       <c r="E54" s="3">
-        <v>242000</v>
+        <v>241200</v>
       </c>
       <c r="F54" s="3">
-        <v>216100</v>
+        <v>215400</v>
       </c>
       <c r="G54" s="3">
-        <v>266000</v>
+        <v>265100</v>
       </c>
       <c r="H54" s="3">
-        <v>209400</v>
+        <v>208700</v>
       </c>
       <c r="I54" s="3">
-        <v>206000</v>
+        <v>205300</v>
       </c>
       <c r="J54" s="3">
-        <v>215000</v>
+        <v>214200</v>
       </c>
       <c r="K54" s="3">
         <v>228300</v>
@@ -2277,7 +2277,7 @@
         <v>8900</v>
       </c>
       <c r="E57" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F57" s="3">
         <v>6400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43400</v>
+        <v>43200</v>
       </c>
       <c r="E58" s="3">
-        <v>48500</v>
+        <v>48300</v>
       </c>
       <c r="F58" s="3">
-        <v>63800</v>
+        <v>63500</v>
       </c>
       <c r="G58" s="3">
-        <v>50900</v>
+        <v>50700</v>
       </c>
       <c r="H58" s="3">
-        <v>76000</v>
+        <v>75700</v>
       </c>
       <c r="I58" s="3">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="J58" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48800</v>
+        <v>48600</v>
       </c>
       <c r="E59" s="3">
-        <v>47000</v>
+        <v>46900</v>
       </c>
       <c r="F59" s="3">
-        <v>50000</v>
+        <v>49800</v>
       </c>
       <c r="G59" s="3">
-        <v>51300</v>
+        <v>51100</v>
       </c>
       <c r="H59" s="3">
-        <v>58400</v>
+        <v>58200</v>
       </c>
       <c r="I59" s="3">
-        <v>54200</v>
+        <v>54000</v>
       </c>
       <c r="J59" s="3">
-        <v>53100</v>
+        <v>52900</v>
       </c>
       <c r="K59" s="3">
         <v>57900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>101000</v>
+        <v>100700</v>
       </c>
       <c r="E60" s="3">
-        <v>100600</v>
+        <v>100200</v>
       </c>
       <c r="F60" s="3">
-        <v>120200</v>
+        <v>119700</v>
       </c>
       <c r="G60" s="3">
-        <v>104400</v>
+        <v>104000</v>
       </c>
       <c r="H60" s="3">
-        <v>142000</v>
+        <v>141500</v>
       </c>
       <c r="I60" s="3">
-        <v>97200</v>
+        <v>96800</v>
       </c>
       <c r="J60" s="3">
-        <v>75000</v>
+        <v>74700</v>
       </c>
       <c r="K60" s="3">
         <v>69400</v>
@@ -2418,16 +2418,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56300</v>
+        <v>56100</v>
       </c>
       <c r="E61" s="3">
-        <v>56200</v>
+        <v>56000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>2800</v>
       </c>
       <c r="F62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G62" s="3">
         <v>3100</v>
@@ -2469,7 +2469,7 @@
         <v>2300</v>
       </c>
       <c r="I62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J62" s="3">
         <v>4400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>160200</v>
+        <v>159600</v>
       </c>
       <c r="E66" s="3">
-        <v>159600</v>
+        <v>159000</v>
       </c>
       <c r="F66" s="3">
-        <v>122900</v>
+        <v>122500</v>
       </c>
       <c r="G66" s="3">
-        <v>120400</v>
+        <v>120000</v>
       </c>
       <c r="H66" s="3">
-        <v>144300</v>
+        <v>143800</v>
       </c>
       <c r="I66" s="3">
-        <v>100500</v>
+        <v>100100</v>
       </c>
       <c r="J66" s="3">
-        <v>79400</v>
+        <v>79100</v>
       </c>
       <c r="K66" s="3">
         <v>74900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1003700</v>
+        <v>-1000200</v>
       </c>
       <c r="E72" s="3">
-        <v>-968300</v>
+        <v>-964800</v>
       </c>
       <c r="F72" s="3">
-        <v>-917700</v>
+        <v>-914400</v>
       </c>
       <c r="G72" s="3">
-        <v>-865500</v>
+        <v>-862400</v>
       </c>
       <c r="H72" s="3">
-        <v>-818700</v>
+        <v>-815800</v>
       </c>
       <c r="I72" s="3">
-        <v>-778400</v>
+        <v>-775600</v>
       </c>
       <c r="J72" s="3">
-        <v>-748400</v>
+        <v>-745700</v>
       </c>
       <c r="K72" s="3">
         <v>-728900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47000</v>
+        <v>46900</v>
       </c>
       <c r="E76" s="3">
-        <v>82500</v>
+        <v>82200</v>
       </c>
       <c r="F76" s="3">
-        <v>93200</v>
+        <v>92900</v>
       </c>
       <c r="G76" s="3">
-        <v>145600</v>
+        <v>145000</v>
       </c>
       <c r="H76" s="3">
-        <v>65100</v>
+        <v>64900</v>
       </c>
       <c r="I76" s="3">
-        <v>105500</v>
+        <v>105100</v>
       </c>
       <c r="J76" s="3">
-        <v>135600</v>
+        <v>135100</v>
       </c>
       <c r="K76" s="3">
         <v>153400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35500</v>
+        <v>-35400</v>
       </c>
       <c r="E81" s="3">
-        <v>-51100</v>
+        <v>-51000</v>
       </c>
       <c r="F81" s="3">
-        <v>-58700</v>
+        <v>-58500</v>
       </c>
       <c r="G81" s="3">
-        <v>-46700</v>
+        <v>-46600</v>
       </c>
       <c r="H81" s="3">
-        <v>-40300</v>
+        <v>-40200</v>
       </c>
       <c r="I81" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="J81" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="K81" s="3">
         <v>-12000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35700</v>
+        <v>35600</v>
       </c>
       <c r="E83" s="3">
-        <v>38600</v>
+        <v>38400</v>
       </c>
       <c r="F83" s="3">
-        <v>40900</v>
+        <v>40700</v>
       </c>
       <c r="G83" s="3">
-        <v>42900</v>
+        <v>42800</v>
       </c>
       <c r="H83" s="3">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="I83" s="3">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="J83" s="3">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="K83" s="3">
         <v>42300</v>
@@ -3319,16 +3319,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="E89" s="3">
         <v>-20600</v>
       </c>
       <c r="F89" s="3">
-        <v>-23700</v>
+        <v>-23600</v>
       </c>
       <c r="G89" s="3">
-        <v>-26600</v>
+        <v>-26500</v>
       </c>
       <c r="H89" s="3">
         <v>11500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="E91" s="3">
         <v>-17500</v>
       </c>
       <c r="F91" s="3">
-        <v>-22100</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-22700</v>
+        <v>-22600</v>
       </c>
       <c r="H91" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="I91" s="3">
-        <v>-25400</v>
+        <v>-25300</v>
       </c>
       <c r="J91" s="3">
-        <v>-24200</v>
+        <v>-24100</v>
       </c>
       <c r="K91" s="3">
         <v>-19000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="E94" s="3">
-        <v>-29600</v>
+        <v>-29500</v>
       </c>
       <c r="F94" s="3">
-        <v>-25100</v>
+        <v>-25000</v>
       </c>
       <c r="G94" s="3">
-        <v>-25400</v>
+        <v>-25300</v>
       </c>
       <c r="H94" s="3">
-        <v>-47800</v>
+        <v>-47600</v>
       </c>
       <c r="I94" s="3">
-        <v>-40800</v>
+        <v>-40700</v>
       </c>
       <c r="J94" s="3">
-        <v>-39100</v>
+        <v>-39000</v>
       </c>
       <c r="K94" s="3">
         <v>-37600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="E100" s="3">
-        <v>58500</v>
+        <v>58300</v>
       </c>
       <c r="F100" s="3">
         <v>-1500</v>
       </c>
       <c r="G100" s="3">
-        <v>114100</v>
+        <v>113700</v>
       </c>
       <c r="H100" s="3">
-        <v>36700</v>
+        <v>36500</v>
       </c>
       <c r="I100" s="3">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="J100" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="K100" s="3">
         <v>-12900</v>
@@ -3747,16 +3747,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="E102" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>-50300</v>
+        <v>-50100</v>
       </c>
       <c r="G102" s="3">
-        <v>62100</v>
+        <v>61900</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>137200</v>
+        <v>137100</v>
       </c>
       <c r="E8" s="3">
-        <v>149000</v>
+        <v>148800</v>
       </c>
       <c r="F8" s="3">
-        <v>149300</v>
+        <v>149100</v>
       </c>
       <c r="G8" s="3">
-        <v>161500</v>
+        <v>161300</v>
       </c>
       <c r="H8" s="3">
-        <v>180500</v>
+        <v>180300</v>
       </c>
       <c r="I8" s="3">
-        <v>193800</v>
+        <v>193600</v>
       </c>
       <c r="J8" s="3">
-        <v>213800</v>
+        <v>213600</v>
       </c>
       <c r="K8" s="3">
         <v>248700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>123200</v>
+        <v>123000</v>
       </c>
       <c r="E9" s="3">
-        <v>142800</v>
+        <v>142700</v>
       </c>
       <c r="F9" s="3">
-        <v>150000</v>
+        <v>149800</v>
       </c>
       <c r="G9" s="3">
-        <v>136000</v>
+        <v>135800</v>
       </c>
       <c r="H9" s="3">
-        <v>135400</v>
+        <v>135200</v>
       </c>
       <c r="I9" s="3">
-        <v>152300</v>
+        <v>152100</v>
       </c>
       <c r="J9" s="3">
-        <v>159700</v>
+        <v>159500</v>
       </c>
       <c r="K9" s="3">
         <v>181600</v>
@@ -801,16 +801,16 @@
         <v>-700</v>
       </c>
       <c r="G10" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="H10" s="3">
-        <v>45200</v>
+        <v>45100</v>
       </c>
       <c r="I10" s="3">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="J10" s="3">
-        <v>54100</v>
+        <v>54000</v>
       </c>
       <c r="K10" s="3">
         <v>67100</v>
@@ -961,16 +961,16 @@
         <v>15600</v>
       </c>
       <c r="G15" s="3">
-        <v>42800</v>
+        <v>42700</v>
       </c>
       <c r="H15" s="3">
-        <v>41600</v>
+        <v>41500</v>
       </c>
       <c r="I15" s="3">
         <v>28600</v>
       </c>
       <c r="J15" s="3">
-        <v>29100</v>
+        <v>29000</v>
       </c>
       <c r="K15" s="3">
         <v>30500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>167300</v>
+        <v>167100</v>
       </c>
       <c r="E17" s="3">
-        <v>195700</v>
+        <v>195500</v>
       </c>
       <c r="F17" s="3">
-        <v>208100</v>
+        <v>207800</v>
       </c>
       <c r="G17" s="3">
-        <v>209400</v>
+        <v>209100</v>
       </c>
       <c r="H17" s="3">
-        <v>220600</v>
+        <v>220300</v>
       </c>
       <c r="I17" s="3">
-        <v>224900</v>
+        <v>224600</v>
       </c>
       <c r="J17" s="3">
-        <v>231600</v>
+        <v>231300</v>
       </c>
       <c r="K17" s="3">
         <v>260000</v>
@@ -1046,7 +1046,7 @@
         <v>-58700</v>
       </c>
       <c r="G18" s="3">
-        <v>-47800</v>
+        <v>-47700</v>
       </c>
       <c r="H18" s="3">
         <v>-40000</v>
@@ -1143,7 +1143,7 @@
         <v>12800</v>
       </c>
       <c r="J21" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="K21" s="3">
         <v>30700</v>
@@ -1164,7 +1164,7 @@
         <v>5300</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
@@ -1197,13 +1197,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="E23" s="3">
         <v>-50900</v>
       </c>
       <c r="F23" s="3">
-        <v>-58400</v>
+        <v>-58300</v>
       </c>
       <c r="G23" s="3">
         <v>-47000</v>
@@ -1212,7 +1212,7 @@
         <v>-40800</v>
       </c>
       <c r="I23" s="3">
-        <v>-31700</v>
+        <v>-31600</v>
       </c>
       <c r="J23" s="3">
         <v>-17900</v>
@@ -1305,19 +1305,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="E26" s="3">
-        <v>-51000</v>
+        <v>-50900</v>
       </c>
       <c r="F26" s="3">
-        <v>-58500</v>
+        <v>-58400</v>
       </c>
       <c r="G26" s="3">
-        <v>-46600</v>
+        <v>-46500</v>
       </c>
       <c r="H26" s="3">
-        <v>-40200</v>
+        <v>-40100</v>
       </c>
       <c r="I26" s="3">
         <v>-29900</v>
@@ -1341,19 +1341,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="E27" s="3">
-        <v>-51000</v>
+        <v>-50900</v>
       </c>
       <c r="F27" s="3">
-        <v>-58500</v>
+        <v>-58400</v>
       </c>
       <c r="G27" s="3">
-        <v>-46600</v>
+        <v>-46500</v>
       </c>
       <c r="H27" s="3">
-        <v>-40200</v>
+        <v>-40100</v>
       </c>
       <c r="I27" s="3">
         <v>-29900</v>
@@ -1557,19 +1557,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="E33" s="3">
-        <v>-51000</v>
+        <v>-50900</v>
       </c>
       <c r="F33" s="3">
-        <v>-58500</v>
+        <v>-58400</v>
       </c>
       <c r="G33" s="3">
-        <v>-46600</v>
+        <v>-46500</v>
       </c>
       <c r="H33" s="3">
-        <v>-40200</v>
+        <v>-40100</v>
       </c>
       <c r="I33" s="3">
         <v>-29900</v>
@@ -1629,19 +1629,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="E35" s="3">
-        <v>-51000</v>
+        <v>-50900</v>
       </c>
       <c r="F35" s="3">
-        <v>-58500</v>
+        <v>-58400</v>
       </c>
       <c r="G35" s="3">
-        <v>-46600</v>
+        <v>-46500</v>
       </c>
       <c r="H35" s="3">
-        <v>-40200</v>
+        <v>-40100</v>
       </c>
       <c r="I35" s="3">
         <v>-29900</v>
@@ -1741,13 +1741,13 @@
         <v>20200</v>
       </c>
       <c r="E41" s="3">
-        <v>31100</v>
+        <v>31000</v>
       </c>
       <c r="F41" s="3">
         <v>22800</v>
       </c>
       <c r="G41" s="3">
-        <v>75100</v>
+        <v>75000</v>
       </c>
       <c r="H41" s="3">
         <v>13600</v>
@@ -1825,7 +1825,7 @@
         <v>6600</v>
       </c>
       <c r="I43" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="J43" s="3">
         <v>10100</v>
@@ -1888,7 +1888,7 @@
         <v>14600</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
         <v>4900</v>
@@ -1921,13 +1921,13 @@
         <v>47600</v>
       </c>
       <c r="E46" s="3">
-        <v>67900</v>
+        <v>67800</v>
       </c>
       <c r="F46" s="3">
-        <v>44000</v>
+        <v>43900</v>
       </c>
       <c r="G46" s="3">
-        <v>87400</v>
+        <v>87300</v>
       </c>
       <c r="H46" s="3">
         <v>27000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104800</v>
+        <v>104700</v>
       </c>
       <c r="E48" s="3">
-        <v>117000</v>
+        <v>116800</v>
       </c>
       <c r="F48" s="3">
-        <v>110300</v>
+        <v>110100</v>
       </c>
       <c r="G48" s="3">
-        <v>114100</v>
+        <v>113900</v>
       </c>
       <c r="H48" s="3">
-        <v>114800</v>
+        <v>114600</v>
       </c>
       <c r="I48" s="3">
-        <v>112200</v>
+        <v>112000</v>
       </c>
       <c r="J48" s="3">
-        <v>114600</v>
+        <v>114500</v>
       </c>
       <c r="K48" s="3">
         <v>120300</v>
@@ -2134,7 +2134,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42900</v>
+        <v>42800</v>
       </c>
       <c r="E52" s="3">
         <v>43400</v>
@@ -2143,16 +2143,16 @@
         <v>46100</v>
       </c>
       <c r="G52" s="3">
-        <v>44000</v>
+        <v>43900</v>
       </c>
       <c r="H52" s="3">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="I52" s="3">
-        <v>47700</v>
+        <v>47600</v>
       </c>
       <c r="J52" s="3">
-        <v>46400</v>
+        <v>46300</v>
       </c>
       <c r="K52" s="3">
         <v>47300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>206500</v>
+        <v>206200</v>
       </c>
       <c r="E54" s="3">
-        <v>241200</v>
+        <v>240900</v>
       </c>
       <c r="F54" s="3">
-        <v>215400</v>
+        <v>215100</v>
       </c>
       <c r="G54" s="3">
-        <v>265100</v>
+        <v>264700</v>
       </c>
       <c r="H54" s="3">
-        <v>208700</v>
+        <v>208400</v>
       </c>
       <c r="I54" s="3">
-        <v>205300</v>
+        <v>205000</v>
       </c>
       <c r="J54" s="3">
-        <v>214200</v>
+        <v>213900</v>
       </c>
       <c r="K54" s="3">
         <v>228300</v>
@@ -2289,7 +2289,7 @@
         <v>7600</v>
       </c>
       <c r="I57" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J57" s="3">
         <v>9000</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43200</v>
+        <v>43100</v>
       </c>
       <c r="E58" s="3">
         <v>48300</v>
@@ -2319,10 +2319,10 @@
         <v>63500</v>
       </c>
       <c r="G58" s="3">
-        <v>50700</v>
+        <v>50600</v>
       </c>
       <c r="H58" s="3">
-        <v>75700</v>
+        <v>75600</v>
       </c>
       <c r="I58" s="3">
         <v>38500</v>
@@ -2346,10 +2346,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48600</v>
+        <v>48500</v>
       </c>
       <c r="E59" s="3">
-        <v>46900</v>
+        <v>46800</v>
       </c>
       <c r="F59" s="3">
         <v>49800</v>
@@ -2358,13 +2358,13 @@
         <v>51100</v>
       </c>
       <c r="H59" s="3">
-        <v>58200</v>
+        <v>58100</v>
       </c>
       <c r="I59" s="3">
         <v>54000</v>
       </c>
       <c r="J59" s="3">
-        <v>52900</v>
+        <v>52800</v>
       </c>
       <c r="K59" s="3">
         <v>57900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="E60" s="3">
-        <v>100200</v>
+        <v>100100</v>
       </c>
       <c r="F60" s="3">
-        <v>119700</v>
+        <v>119600</v>
       </c>
       <c r="G60" s="3">
-        <v>104000</v>
+        <v>103900</v>
       </c>
       <c r="H60" s="3">
-        <v>141500</v>
+        <v>141300</v>
       </c>
       <c r="I60" s="3">
-        <v>96800</v>
+        <v>96700</v>
       </c>
       <c r="J60" s="3">
-        <v>74700</v>
+        <v>74600</v>
       </c>
       <c r="K60" s="3">
         <v>69400</v>
@@ -2418,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56100</v>
+        <v>56000</v>
       </c>
       <c r="E61" s="3">
-        <v>56000</v>
+        <v>55900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>159600</v>
+        <v>159400</v>
       </c>
       <c r="E66" s="3">
-        <v>159000</v>
+        <v>158800</v>
       </c>
       <c r="F66" s="3">
-        <v>122500</v>
+        <v>122300</v>
       </c>
       <c r="G66" s="3">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="H66" s="3">
-        <v>143800</v>
+        <v>143600</v>
       </c>
       <c r="I66" s="3">
-        <v>100100</v>
+        <v>100000</v>
       </c>
       <c r="J66" s="3">
-        <v>79100</v>
+        <v>79000</v>
       </c>
       <c r="K66" s="3">
         <v>74900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1000200</v>
+        <v>-998900</v>
       </c>
       <c r="E72" s="3">
-        <v>-964800</v>
+        <v>-963600</v>
       </c>
       <c r="F72" s="3">
-        <v>-914400</v>
+        <v>-913300</v>
       </c>
       <c r="G72" s="3">
-        <v>-862400</v>
+        <v>-861300</v>
       </c>
       <c r="H72" s="3">
-        <v>-815800</v>
+        <v>-814800</v>
       </c>
       <c r="I72" s="3">
-        <v>-775600</v>
+        <v>-774700</v>
       </c>
       <c r="J72" s="3">
-        <v>-745700</v>
+        <v>-744800</v>
       </c>
       <c r="K72" s="3">
         <v>-728900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46900</v>
+        <v>46800</v>
       </c>
       <c r="E76" s="3">
-        <v>82200</v>
+        <v>82100</v>
       </c>
       <c r="F76" s="3">
-        <v>92900</v>
+        <v>92800</v>
       </c>
       <c r="G76" s="3">
-        <v>145000</v>
+        <v>144900</v>
       </c>
       <c r="H76" s="3">
-        <v>64900</v>
+        <v>64800</v>
       </c>
       <c r="I76" s="3">
-        <v>105100</v>
+        <v>105000</v>
       </c>
       <c r="J76" s="3">
-        <v>135100</v>
+        <v>134900</v>
       </c>
       <c r="K76" s="3">
         <v>153400</v>
@@ -3051,19 +3051,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="E81" s="3">
-        <v>-51000</v>
+        <v>-50900</v>
       </c>
       <c r="F81" s="3">
-        <v>-58500</v>
+        <v>-58400</v>
       </c>
       <c r="G81" s="3">
-        <v>-46600</v>
+        <v>-46500</v>
       </c>
       <c r="H81" s="3">
-        <v>-40200</v>
+        <v>-40100</v>
       </c>
       <c r="I81" s="3">
         <v>-29900</v>
@@ -3103,7 +3103,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="E83" s="3">
         <v>38400</v>
@@ -3112,13 +3112,13 @@
         <v>40700</v>
       </c>
       <c r="G83" s="3">
-        <v>42800</v>
+        <v>42700</v>
       </c>
       <c r="H83" s="3">
-        <v>41600</v>
+        <v>41500</v>
       </c>
       <c r="I83" s="3">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="J83" s="3">
         <v>44300</v>
@@ -3322,10 +3322,10 @@
         <v>14100</v>
       </c>
       <c r="E89" s="3">
-        <v>-20600</v>
+        <v>-20500</v>
       </c>
       <c r="F89" s="3">
-        <v>-23600</v>
+        <v>-23500</v>
       </c>
       <c r="G89" s="3">
         <v>-26500</v>
@@ -3334,10 +3334,10 @@
         <v>11500</v>
       </c>
       <c r="I89" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="J89" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="K89" s="3">
         <v>33000</v>
@@ -3491,13 +3491,13 @@
         <v>-25300</v>
       </c>
       <c r="H94" s="3">
-        <v>-47600</v>
+        <v>-47500</v>
       </c>
       <c r="I94" s="3">
-        <v>-40700</v>
+        <v>-40600</v>
       </c>
       <c r="J94" s="3">
-        <v>-39000</v>
+        <v>-38900</v>
       </c>
       <c r="K94" s="3">
         <v>-37600</v>
@@ -3678,19 +3678,19 @@
         <v>-11700</v>
       </c>
       <c r="E100" s="3">
-        <v>58300</v>
+        <v>58200</v>
       </c>
       <c r="F100" s="3">
         <v>-1500</v>
       </c>
       <c r="G100" s="3">
-        <v>113700</v>
+        <v>113600</v>
       </c>
       <c r="H100" s="3">
         <v>36500</v>
       </c>
       <c r="I100" s="3">
-        <v>25700</v>
+        <v>25600</v>
       </c>
       <c r="J100" s="3">
         <v>12800</v>
@@ -3753,10 +3753,10 @@
         <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>-50100</v>
+        <v>-50000</v>
       </c>
       <c r="G102" s="3">
-        <v>61900</v>
+        <v>61800</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>137100</v>
+        <v>136600</v>
       </c>
       <c r="E8" s="3">
-        <v>148800</v>
+        <v>148300</v>
       </c>
       <c r="F8" s="3">
-        <v>149100</v>
+        <v>148600</v>
       </c>
       <c r="G8" s="3">
-        <v>161300</v>
+        <v>160800</v>
       </c>
       <c r="H8" s="3">
-        <v>180300</v>
+        <v>179600</v>
       </c>
       <c r="I8" s="3">
-        <v>193600</v>
+        <v>192800</v>
       </c>
       <c r="J8" s="3">
-        <v>213600</v>
+        <v>212800</v>
       </c>
       <c r="K8" s="3">
         <v>248700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>123000</v>
+        <v>122600</v>
       </c>
       <c r="E9" s="3">
-        <v>142700</v>
+        <v>142100</v>
       </c>
       <c r="F9" s="3">
-        <v>149800</v>
+        <v>149300</v>
       </c>
       <c r="G9" s="3">
-        <v>135800</v>
+        <v>135300</v>
       </c>
       <c r="H9" s="3">
-        <v>135200</v>
+        <v>134700</v>
       </c>
       <c r="I9" s="3">
-        <v>152100</v>
+        <v>151600</v>
       </c>
       <c r="J9" s="3">
-        <v>159500</v>
+        <v>159000</v>
       </c>
       <c r="K9" s="3">
         <v>181600</v>
@@ -801,16 +801,16 @@
         <v>-700</v>
       </c>
       <c r="G10" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="H10" s="3">
-        <v>45100</v>
+        <v>45000</v>
       </c>
       <c r="I10" s="3">
-        <v>41400</v>
+        <v>41300</v>
       </c>
       <c r="J10" s="3">
-        <v>54000</v>
+        <v>53800</v>
       </c>
       <c r="K10" s="3">
         <v>67100</v>
@@ -922,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="G14" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E15" s="3">
         <v>9200</v>
       </c>
       <c r="F15" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="G15" s="3">
-        <v>42700</v>
+        <v>42600</v>
       </c>
       <c r="H15" s="3">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="I15" s="3">
-        <v>28600</v>
+        <v>28500</v>
       </c>
       <c r="J15" s="3">
-        <v>29000</v>
+        <v>28900</v>
       </c>
       <c r="K15" s="3">
         <v>30500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>167100</v>
+        <v>166500</v>
       </c>
       <c r="E17" s="3">
-        <v>195500</v>
+        <v>194800</v>
       </c>
       <c r="F17" s="3">
-        <v>207800</v>
+        <v>207100</v>
       </c>
       <c r="G17" s="3">
-        <v>209100</v>
+        <v>208300</v>
       </c>
       <c r="H17" s="3">
-        <v>220300</v>
+        <v>219500</v>
       </c>
       <c r="I17" s="3">
-        <v>224600</v>
+        <v>223800</v>
       </c>
       <c r="J17" s="3">
-        <v>231300</v>
+        <v>230500</v>
       </c>
       <c r="K17" s="3">
         <v>260000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-30100</v>
+        <v>-29900</v>
       </c>
       <c r="E18" s="3">
-        <v>-46700</v>
+        <v>-46500</v>
       </c>
       <c r="F18" s="3">
-        <v>-58700</v>
+        <v>-58500</v>
       </c>
       <c r="G18" s="3">
-        <v>-47700</v>
+        <v>-47600</v>
       </c>
       <c r="H18" s="3">
-        <v>-40000</v>
+        <v>-39800</v>
       </c>
       <c r="I18" s="3">
-        <v>-31100</v>
+        <v>-30900</v>
       </c>
       <c r="J18" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="K18" s="3">
         <v>-11300</v>
@@ -1131,7 +1131,7 @@
         <v>-7600</v>
       </c>
       <c r="F21" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="G21" s="3">
         <v>-3000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35200</v>
+        <v>-35100</v>
       </c>
       <c r="E23" s="3">
-        <v>-50900</v>
+        <v>-50700</v>
       </c>
       <c r="F23" s="3">
-        <v>-58300</v>
+        <v>-58100</v>
       </c>
       <c r="G23" s="3">
-        <v>-47000</v>
+        <v>-46800</v>
       </c>
       <c r="H23" s="3">
-        <v>-40800</v>
+        <v>-40600</v>
       </c>
       <c r="I23" s="3">
-        <v>-31600</v>
+        <v>-31500</v>
       </c>
       <c r="J23" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="K23" s="3">
         <v>-11600</v>
@@ -1245,7 +1245,7 @@
         <v>-400</v>
       </c>
       <c r="H24" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I24" s="3">
         <v>-1700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="E26" s="3">
-        <v>-50900</v>
+        <v>-50700</v>
       </c>
       <c r="F26" s="3">
-        <v>-58400</v>
+        <v>-58200</v>
       </c>
       <c r="G26" s="3">
-        <v>-46500</v>
+        <v>-46300</v>
       </c>
       <c r="H26" s="3">
-        <v>-40100</v>
+        <v>-40000</v>
       </c>
       <c r="I26" s="3">
-        <v>-29900</v>
+        <v>-29800</v>
       </c>
       <c r="J26" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="K26" s="3">
         <v>-12000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="E27" s="3">
-        <v>-50900</v>
+        <v>-50700</v>
       </c>
       <c r="F27" s="3">
-        <v>-58400</v>
+        <v>-58200</v>
       </c>
       <c r="G27" s="3">
-        <v>-46500</v>
+        <v>-46300</v>
       </c>
       <c r="H27" s="3">
-        <v>-40100</v>
+        <v>-40000</v>
       </c>
       <c r="I27" s="3">
-        <v>-29900</v>
+        <v>-29800</v>
       </c>
       <c r="J27" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="K27" s="3">
         <v>-12000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="E33" s="3">
-        <v>-50900</v>
+        <v>-50700</v>
       </c>
       <c r="F33" s="3">
-        <v>-58400</v>
+        <v>-58200</v>
       </c>
       <c r="G33" s="3">
-        <v>-46500</v>
+        <v>-46300</v>
       </c>
       <c r="H33" s="3">
-        <v>-40100</v>
+        <v>-40000</v>
       </c>
       <c r="I33" s="3">
-        <v>-29900</v>
+        <v>-29800</v>
       </c>
       <c r="J33" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="K33" s="3">
         <v>-12000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="E35" s="3">
-        <v>-50900</v>
+        <v>-50700</v>
       </c>
       <c r="F35" s="3">
-        <v>-58400</v>
+        <v>-58200</v>
       </c>
       <c r="G35" s="3">
-        <v>-46500</v>
+        <v>-46300</v>
       </c>
       <c r="H35" s="3">
-        <v>-40100</v>
+        <v>-40000</v>
       </c>
       <c r="I35" s="3">
-        <v>-29900</v>
+        <v>-29800</v>
       </c>
       <c r="J35" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="K35" s="3">
         <v>-12000</v>
@@ -1738,22 +1738,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="E41" s="3">
-        <v>31000</v>
+        <v>30900</v>
       </c>
       <c r="F41" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="G41" s="3">
-        <v>75000</v>
+        <v>74700</v>
       </c>
       <c r="H41" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="I41" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J41" s="3">
         <v>8000</v>
@@ -1810,10 +1810,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="E43" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="F43" s="3">
         <v>7500</v>
@@ -1828,7 +1828,7 @@
         <v>8700</v>
       </c>
       <c r="J43" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="K43" s="3">
         <v>10500</v>
@@ -1885,7 +1885,7 @@
         <v>11700</v>
       </c>
       <c r="E45" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="F45" s="3">
         <v>12300</v>
@@ -1900,7 +1900,7 @@
         <v>3600</v>
       </c>
       <c r="J45" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="K45" s="3">
         <v>6900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47600</v>
+        <v>47400</v>
       </c>
       <c r="E46" s="3">
-        <v>67800</v>
+        <v>67500</v>
       </c>
       <c r="F46" s="3">
-        <v>43900</v>
+        <v>43800</v>
       </c>
       <c r="G46" s="3">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="H46" s="3">
-        <v>27000</v>
+        <v>26900</v>
       </c>
       <c r="I46" s="3">
-        <v>24800</v>
+        <v>24700</v>
       </c>
       <c r="J46" s="3">
-        <v>31100</v>
+        <v>31000</v>
       </c>
       <c r="K46" s="3">
         <v>42600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104700</v>
+        <v>104300</v>
       </c>
       <c r="E48" s="3">
-        <v>116800</v>
+        <v>116400</v>
       </c>
       <c r="F48" s="3">
-        <v>110100</v>
+        <v>109700</v>
       </c>
       <c r="G48" s="3">
-        <v>113900</v>
+        <v>113500</v>
       </c>
       <c r="H48" s="3">
-        <v>114600</v>
+        <v>114200</v>
       </c>
       <c r="I48" s="3">
-        <v>112000</v>
+        <v>111600</v>
       </c>
       <c r="J48" s="3">
-        <v>114500</v>
+        <v>114100</v>
       </c>
       <c r="K48" s="3">
         <v>120300</v>
@@ -2029,22 +2029,22 @@
         <v>11100</v>
       </c>
       <c r="E49" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="F49" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="G49" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="H49" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="I49" s="3">
-        <v>20600</v>
+        <v>20500</v>
       </c>
       <c r="J49" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="K49" s="3">
         <v>18200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42800</v>
+        <v>42700</v>
       </c>
       <c r="E52" s="3">
-        <v>43400</v>
+        <v>43200</v>
       </c>
       <c r="F52" s="3">
-        <v>46100</v>
+        <v>45900</v>
       </c>
       <c r="G52" s="3">
-        <v>43900</v>
+        <v>43700</v>
       </c>
       <c r="H52" s="3">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="I52" s="3">
-        <v>47600</v>
+        <v>47500</v>
       </c>
       <c r="J52" s="3">
-        <v>46300</v>
+        <v>46200</v>
       </c>
       <c r="K52" s="3">
         <v>47300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>206200</v>
+        <v>205400</v>
       </c>
       <c r="E54" s="3">
-        <v>240900</v>
+        <v>240000</v>
       </c>
       <c r="F54" s="3">
-        <v>215100</v>
+        <v>214300</v>
       </c>
       <c r="G54" s="3">
-        <v>264700</v>
+        <v>263800</v>
       </c>
       <c r="H54" s="3">
-        <v>208400</v>
+        <v>207600</v>
       </c>
       <c r="I54" s="3">
-        <v>205000</v>
+        <v>204300</v>
       </c>
       <c r="J54" s="3">
-        <v>213900</v>
+        <v>213200</v>
       </c>
       <c r="K54" s="3">
         <v>228300</v>
@@ -2274,13 +2274,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E57" s="3">
         <v>5000</v>
       </c>
       <c r="F57" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G57" s="3">
         <v>2200</v>
@@ -2292,7 +2292,7 @@
         <v>4200</v>
       </c>
       <c r="J57" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="K57" s="3">
         <v>11500</v>
@@ -2310,22 +2310,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43100</v>
+        <v>43000</v>
       </c>
       <c r="E58" s="3">
-        <v>48300</v>
+        <v>48100</v>
       </c>
       <c r="F58" s="3">
-        <v>63500</v>
+        <v>63200</v>
       </c>
       <c r="G58" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="H58" s="3">
-        <v>75600</v>
+        <v>75400</v>
       </c>
       <c r="I58" s="3">
-        <v>38500</v>
+        <v>38300</v>
       </c>
       <c r="J58" s="3">
         <v>12800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48500</v>
+        <v>48300</v>
       </c>
       <c r="E59" s="3">
-        <v>46800</v>
+        <v>46600</v>
       </c>
       <c r="F59" s="3">
-        <v>49800</v>
+        <v>49600</v>
       </c>
       <c r="G59" s="3">
-        <v>51100</v>
+        <v>50900</v>
       </c>
       <c r="H59" s="3">
-        <v>58100</v>
+        <v>57900</v>
       </c>
       <c r="I59" s="3">
-        <v>54000</v>
+        <v>53800</v>
       </c>
       <c r="J59" s="3">
-        <v>52800</v>
+        <v>52600</v>
       </c>
       <c r="K59" s="3">
         <v>57900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100500</v>
+        <v>100200</v>
       </c>
       <c r="E60" s="3">
-        <v>100100</v>
+        <v>99700</v>
       </c>
       <c r="F60" s="3">
-        <v>119600</v>
+        <v>119100</v>
       </c>
       <c r="G60" s="3">
-        <v>103900</v>
+        <v>103500</v>
       </c>
       <c r="H60" s="3">
-        <v>141300</v>
+        <v>140800</v>
       </c>
       <c r="I60" s="3">
-        <v>96700</v>
+        <v>96300</v>
       </c>
       <c r="J60" s="3">
-        <v>74600</v>
+        <v>74300</v>
       </c>
       <c r="K60" s="3">
         <v>69400</v>
@@ -2418,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56000</v>
+        <v>55800</v>
       </c>
       <c r="E61" s="3">
-        <v>55900</v>
+        <v>55700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>159400</v>
+        <v>158800</v>
       </c>
       <c r="E66" s="3">
-        <v>158800</v>
+        <v>158200</v>
       </c>
       <c r="F66" s="3">
-        <v>122300</v>
+        <v>121900</v>
       </c>
       <c r="G66" s="3">
-        <v>119900</v>
+        <v>119400</v>
       </c>
       <c r="H66" s="3">
-        <v>143600</v>
+        <v>143100</v>
       </c>
       <c r="I66" s="3">
-        <v>100000</v>
+        <v>99700</v>
       </c>
       <c r="J66" s="3">
-        <v>79000</v>
+        <v>78700</v>
       </c>
       <c r="K66" s="3">
         <v>74900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-998900</v>
+        <v>-995200</v>
       </c>
       <c r="E72" s="3">
-        <v>-963600</v>
+        <v>-960100</v>
       </c>
       <c r="F72" s="3">
-        <v>-913300</v>
+        <v>-910000</v>
       </c>
       <c r="G72" s="3">
-        <v>-861300</v>
+        <v>-858100</v>
       </c>
       <c r="H72" s="3">
-        <v>-814800</v>
+        <v>-811800</v>
       </c>
       <c r="I72" s="3">
-        <v>-774700</v>
+        <v>-771800</v>
       </c>
       <c r="J72" s="3">
-        <v>-744800</v>
+        <v>-742100</v>
       </c>
       <c r="K72" s="3">
         <v>-728900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46800</v>
+        <v>46600</v>
       </c>
       <c r="E76" s="3">
-        <v>82100</v>
+        <v>81800</v>
       </c>
       <c r="F76" s="3">
-        <v>92800</v>
+        <v>92400</v>
       </c>
       <c r="G76" s="3">
-        <v>144900</v>
+        <v>144300</v>
       </c>
       <c r="H76" s="3">
-        <v>64800</v>
+        <v>64600</v>
       </c>
       <c r="I76" s="3">
-        <v>105000</v>
+        <v>104600</v>
       </c>
       <c r="J76" s="3">
-        <v>134900</v>
+        <v>134500</v>
       </c>
       <c r="K76" s="3">
         <v>153400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35300</v>
+        <v>-35200</v>
       </c>
       <c r="E81" s="3">
-        <v>-50900</v>
+        <v>-50700</v>
       </c>
       <c r="F81" s="3">
-        <v>-58400</v>
+        <v>-58200</v>
       </c>
       <c r="G81" s="3">
-        <v>-46500</v>
+        <v>-46300</v>
       </c>
       <c r="H81" s="3">
-        <v>-40100</v>
+        <v>-40000</v>
       </c>
       <c r="I81" s="3">
-        <v>-29900</v>
+        <v>-29800</v>
       </c>
       <c r="J81" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="K81" s="3">
         <v>-12000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35500</v>
+        <v>35400</v>
       </c>
       <c r="E83" s="3">
-        <v>38400</v>
+        <v>38200</v>
       </c>
       <c r="F83" s="3">
-        <v>40700</v>
+        <v>40500</v>
       </c>
       <c r="G83" s="3">
-        <v>42700</v>
+        <v>42600</v>
       </c>
       <c r="H83" s="3">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="I83" s="3">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="J83" s="3">
-        <v>44300</v>
+        <v>44100</v>
       </c>
       <c r="K83" s="3">
         <v>42300</v>
@@ -3319,7 +3319,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="E89" s="3">
         <v>-20500</v>
@@ -3328,7 +3328,7 @@
         <v>-23500</v>
       </c>
       <c r="G89" s="3">
-        <v>-26500</v>
+        <v>-26400</v>
       </c>
       <c r="H89" s="3">
         <v>11500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="E91" s="3">
-        <v>-17500</v>
+        <v>-17400</v>
       </c>
       <c r="F91" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="G91" s="3">
-        <v>-22600</v>
+        <v>-22500</v>
       </c>
       <c r="H91" s="3">
-        <v>-30000</v>
+        <v>-29800</v>
       </c>
       <c r="I91" s="3">
-        <v>-25300</v>
+        <v>-25200</v>
       </c>
       <c r="J91" s="3">
-        <v>-24100</v>
+        <v>-24000</v>
       </c>
       <c r="K91" s="3">
         <v>-19000</v>
@@ -3482,22 +3482,22 @@
         <v>-13200</v>
       </c>
       <c r="E94" s="3">
-        <v>-29500</v>
+        <v>-29400</v>
       </c>
       <c r="F94" s="3">
-        <v>-25000</v>
+        <v>-24900</v>
       </c>
       <c r="G94" s="3">
-        <v>-25300</v>
+        <v>-25200</v>
       </c>
       <c r="H94" s="3">
-        <v>-47500</v>
+        <v>-47300</v>
       </c>
       <c r="I94" s="3">
-        <v>-40600</v>
+        <v>-40500</v>
       </c>
       <c r="J94" s="3">
-        <v>-38900</v>
+        <v>-38800</v>
       </c>
       <c r="K94" s="3">
         <v>-37600</v>
@@ -3678,19 +3678,19 @@
         <v>-11700</v>
       </c>
       <c r="E100" s="3">
-        <v>58200</v>
+        <v>58000</v>
       </c>
       <c r="F100" s="3">
         <v>-1500</v>
       </c>
       <c r="G100" s="3">
-        <v>113600</v>
+        <v>113200</v>
       </c>
       <c r="H100" s="3">
-        <v>36500</v>
+        <v>36300</v>
       </c>
       <c r="I100" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="J100" s="3">
         <v>12800</v>
@@ -3753,10 +3753,10 @@
         <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>-50000</v>
+        <v>-49800</v>
       </c>
       <c r="G102" s="3">
-        <v>61800</v>
+        <v>61600</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>136600</v>
+        <v>136200</v>
       </c>
       <c r="E8" s="3">
-        <v>148300</v>
+        <v>147900</v>
       </c>
       <c r="F8" s="3">
-        <v>148600</v>
+        <v>148200</v>
       </c>
       <c r="G8" s="3">
-        <v>160800</v>
+        <v>160300</v>
       </c>
       <c r="H8" s="3">
-        <v>179600</v>
+        <v>179200</v>
       </c>
       <c r="I8" s="3">
-        <v>192800</v>
+        <v>192300</v>
       </c>
       <c r="J8" s="3">
-        <v>212800</v>
+        <v>212200</v>
       </c>
       <c r="K8" s="3">
         <v>248700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>122600</v>
+        <v>122300</v>
       </c>
       <c r="E9" s="3">
-        <v>142100</v>
+        <v>141700</v>
       </c>
       <c r="F9" s="3">
-        <v>149300</v>
+        <v>148900</v>
       </c>
       <c r="G9" s="3">
-        <v>135300</v>
+        <v>134900</v>
       </c>
       <c r="H9" s="3">
-        <v>134700</v>
+        <v>134300</v>
       </c>
       <c r="I9" s="3">
-        <v>151600</v>
+        <v>151100</v>
       </c>
       <c r="J9" s="3">
-        <v>159000</v>
+        <v>158500</v>
       </c>
       <c r="K9" s="3">
         <v>181600</v>
@@ -792,10 +792,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="E10" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F10" s="3">
         <v>-700</v>
@@ -804,13 +804,13 @@
         <v>25400</v>
       </c>
       <c r="H10" s="3">
-        <v>45000</v>
+        <v>44800</v>
       </c>
       <c r="I10" s="3">
-        <v>41300</v>
+        <v>41200</v>
       </c>
       <c r="J10" s="3">
-        <v>53800</v>
+        <v>53700</v>
       </c>
       <c r="K10" s="3">
         <v>67100</v>
@@ -955,19 +955,19 @@
         <v>6700</v>
       </c>
       <c r="E15" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="F15" s="3">
         <v>15500</v>
       </c>
       <c r="G15" s="3">
-        <v>42600</v>
+        <v>42500</v>
       </c>
       <c r="H15" s="3">
-        <v>41400</v>
+        <v>41300</v>
       </c>
       <c r="I15" s="3">
-        <v>28500</v>
+        <v>28400</v>
       </c>
       <c r="J15" s="3">
         <v>28900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>166500</v>
+        <v>166000</v>
       </c>
       <c r="E17" s="3">
-        <v>194800</v>
+        <v>194200</v>
       </c>
       <c r="F17" s="3">
-        <v>207100</v>
+        <v>206500</v>
       </c>
       <c r="G17" s="3">
-        <v>208300</v>
+        <v>207800</v>
       </c>
       <c r="H17" s="3">
-        <v>219500</v>
+        <v>218900</v>
       </c>
       <c r="I17" s="3">
-        <v>223800</v>
+        <v>223200</v>
       </c>
       <c r="J17" s="3">
-        <v>230500</v>
+        <v>229900</v>
       </c>
       <c r="K17" s="3">
         <v>260000</v>
@@ -1040,16 +1040,16 @@
         <v>-29900</v>
       </c>
       <c r="E18" s="3">
-        <v>-46500</v>
+        <v>-46400</v>
       </c>
       <c r="F18" s="3">
-        <v>-58500</v>
+        <v>-58300</v>
       </c>
       <c r="G18" s="3">
-        <v>-47600</v>
+        <v>-47400</v>
       </c>
       <c r="H18" s="3">
-        <v>-39800</v>
+        <v>-39700</v>
       </c>
       <c r="I18" s="3">
         <v>-30900</v>
@@ -1092,7 +1092,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>1700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5600</v>
+        <v>8400</v>
       </c>
       <c r="E21" s="3">
-        <v>-7600</v>
+        <v>-5300</v>
       </c>
       <c r="F21" s="3">
-        <v>-16200</v>
+        <v>-14200</v>
       </c>
       <c r="G21" s="3">
-        <v>-3000</v>
+        <v>-4200</v>
       </c>
       <c r="H21" s="3">
-        <v>1500</v>
+        <v>4400</v>
       </c>
       <c r="I21" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>26400</v>
+        <v>12600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>30700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35100</v>
+        <v>-35000</v>
       </c>
       <c r="E23" s="3">
-        <v>-50700</v>
+        <v>-50500</v>
       </c>
       <c r="F23" s="3">
-        <v>-58100</v>
+        <v>-57900</v>
       </c>
       <c r="G23" s="3">
-        <v>-46800</v>
+        <v>-46700</v>
       </c>
       <c r="H23" s="3">
-        <v>-40600</v>
+        <v>-40500</v>
       </c>
       <c r="I23" s="3">
-        <v>-31500</v>
+        <v>-31400</v>
       </c>
       <c r="J23" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="K23" s="3">
         <v>-11600</v>
@@ -1305,22 +1305,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35200</v>
+        <v>-35100</v>
       </c>
       <c r="E26" s="3">
-        <v>-50700</v>
+        <v>-50600</v>
       </c>
       <c r="F26" s="3">
-        <v>-58200</v>
+        <v>-58000</v>
       </c>
       <c r="G26" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="H26" s="3">
-        <v>-40000</v>
+        <v>-39800</v>
       </c>
       <c r="I26" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="J26" s="3">
         <v>-17800</v>
@@ -1341,22 +1341,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35200</v>
+        <v>-35100</v>
       </c>
       <c r="E27" s="3">
-        <v>-50700</v>
+        <v>-50600</v>
       </c>
       <c r="F27" s="3">
-        <v>-58200</v>
+        <v>-58000</v>
       </c>
       <c r="G27" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="H27" s="3">
-        <v>-40000</v>
+        <v>-39800</v>
       </c>
       <c r="I27" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="J27" s="3">
         <v>-17800</v>
@@ -1524,7 +1524,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
         <v>-1700</v>
@@ -1557,22 +1557,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35200</v>
+        <v>-35100</v>
       </c>
       <c r="E33" s="3">
-        <v>-50700</v>
+        <v>-50600</v>
       </c>
       <c r="F33" s="3">
-        <v>-58200</v>
+        <v>-58000</v>
       </c>
       <c r="G33" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="H33" s="3">
-        <v>-40000</v>
+        <v>-39800</v>
       </c>
       <c r="I33" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="J33" s="3">
         <v>-17800</v>
@@ -1629,22 +1629,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35200</v>
+        <v>-35100</v>
       </c>
       <c r="E35" s="3">
-        <v>-50700</v>
+        <v>-50600</v>
       </c>
       <c r="F35" s="3">
-        <v>-58200</v>
+        <v>-58000</v>
       </c>
       <c r="G35" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="H35" s="3">
-        <v>-40000</v>
+        <v>-39800</v>
       </c>
       <c r="I35" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="J35" s="3">
         <v>-17800</v>
@@ -1741,13 +1741,13 @@
         <v>20100</v>
       </c>
       <c r="E41" s="3">
-        <v>30900</v>
+        <v>30800</v>
       </c>
       <c r="F41" s="3">
         <v>22700</v>
       </c>
       <c r="G41" s="3">
-        <v>74700</v>
+        <v>74500</v>
       </c>
       <c r="H41" s="3">
         <v>13500</v>
@@ -1756,7 +1756,7 @@
         <v>10500</v>
       </c>
       <c r="J41" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="K41" s="3">
         <v>23400</v>
@@ -1816,7 +1816,7 @@
         <v>13600</v>
       </c>
       <c r="F43" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G43" s="3">
         <v>5600</v>
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E45" s="3">
         <v>14500</v>
@@ -1894,7 +1894,7 @@
         <v>4900</v>
       </c>
       <c r="H45" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I45" s="3">
         <v>3600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47400</v>
+        <v>47300</v>
       </c>
       <c r="E46" s="3">
-        <v>67500</v>
+        <v>67400</v>
       </c>
       <c r="F46" s="3">
-        <v>43800</v>
+        <v>43600</v>
       </c>
       <c r="G46" s="3">
-        <v>87000</v>
+        <v>86700</v>
       </c>
       <c r="H46" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="I46" s="3">
         <v>24700</v>
       </c>
       <c r="J46" s="3">
-        <v>31000</v>
+        <v>30900</v>
       </c>
       <c r="K46" s="3">
         <v>42600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104300</v>
+        <v>104000</v>
       </c>
       <c r="E48" s="3">
-        <v>116400</v>
+        <v>116100</v>
       </c>
       <c r="F48" s="3">
-        <v>109700</v>
+        <v>109400</v>
       </c>
       <c r="G48" s="3">
-        <v>113500</v>
+        <v>113200</v>
       </c>
       <c r="H48" s="3">
-        <v>114200</v>
+        <v>113900</v>
       </c>
       <c r="I48" s="3">
-        <v>111600</v>
+        <v>111300</v>
       </c>
       <c r="J48" s="3">
-        <v>114100</v>
+        <v>113800</v>
       </c>
       <c r="K48" s="3">
         <v>120300</v>
@@ -2026,7 +2026,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E49" s="3">
         <v>12800</v>
@@ -2038,10 +2038,10 @@
         <v>19500</v>
       </c>
       <c r="H49" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="I49" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="J49" s="3">
         <v>21900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42700</v>
+        <v>42600</v>
       </c>
       <c r="E52" s="3">
-        <v>43200</v>
+        <v>43100</v>
       </c>
       <c r="F52" s="3">
-        <v>45900</v>
+        <v>45800</v>
       </c>
       <c r="G52" s="3">
-        <v>43700</v>
+        <v>43600</v>
       </c>
       <c r="H52" s="3">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="I52" s="3">
-        <v>47500</v>
+        <v>47300</v>
       </c>
       <c r="J52" s="3">
-        <v>46200</v>
+        <v>46000</v>
       </c>
       <c r="K52" s="3">
         <v>47300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>205400</v>
+        <v>204900</v>
       </c>
       <c r="E54" s="3">
-        <v>240000</v>
+        <v>239300</v>
       </c>
       <c r="F54" s="3">
-        <v>214300</v>
+        <v>213700</v>
       </c>
       <c r="G54" s="3">
-        <v>263800</v>
+        <v>263000</v>
       </c>
       <c r="H54" s="3">
-        <v>207600</v>
+        <v>207100</v>
       </c>
       <c r="I54" s="3">
-        <v>204300</v>
+        <v>203700</v>
       </c>
       <c r="J54" s="3">
-        <v>213200</v>
+        <v>212600</v>
       </c>
       <c r="K54" s="3">
         <v>228300</v>
@@ -2286,7 +2286,7 @@
         <v>2200</v>
       </c>
       <c r="H57" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I57" s="3">
         <v>4200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43000</v>
+        <v>42900</v>
       </c>
       <c r="E58" s="3">
-        <v>48100</v>
+        <v>48000</v>
       </c>
       <c r="F58" s="3">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="G58" s="3">
-        <v>50500</v>
+        <v>50300</v>
       </c>
       <c r="H58" s="3">
-        <v>75400</v>
+        <v>75200</v>
       </c>
       <c r="I58" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="J58" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48300</v>
+        <v>48200</v>
       </c>
       <c r="E59" s="3">
-        <v>46600</v>
+        <v>46500</v>
       </c>
       <c r="F59" s="3">
-        <v>49600</v>
+        <v>49400</v>
       </c>
       <c r="G59" s="3">
-        <v>50900</v>
+        <v>50700</v>
       </c>
       <c r="H59" s="3">
-        <v>57900</v>
+        <v>57700</v>
       </c>
       <c r="I59" s="3">
-        <v>53800</v>
+        <v>53600</v>
       </c>
       <c r="J59" s="3">
-        <v>52600</v>
+        <v>52500</v>
       </c>
       <c r="K59" s="3">
         <v>57900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100200</v>
+        <v>99900</v>
       </c>
       <c r="E60" s="3">
-        <v>99700</v>
+        <v>99500</v>
       </c>
       <c r="F60" s="3">
-        <v>119100</v>
+        <v>118800</v>
       </c>
       <c r="G60" s="3">
-        <v>103500</v>
+        <v>103200</v>
       </c>
       <c r="H60" s="3">
-        <v>140800</v>
+        <v>140400</v>
       </c>
       <c r="I60" s="3">
-        <v>96300</v>
+        <v>96100</v>
       </c>
       <c r="J60" s="3">
-        <v>74300</v>
+        <v>74100</v>
       </c>
       <c r="K60" s="3">
         <v>69400</v>
@@ -2418,16 +2418,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55800</v>
+        <v>55700</v>
       </c>
       <c r="E61" s="3">
-        <v>55700</v>
+        <v>55500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>158800</v>
+        <v>158400</v>
       </c>
       <c r="E66" s="3">
-        <v>158200</v>
+        <v>157800</v>
       </c>
       <c r="F66" s="3">
-        <v>121900</v>
+        <v>121500</v>
       </c>
       <c r="G66" s="3">
-        <v>119400</v>
+        <v>119100</v>
       </c>
       <c r="H66" s="3">
-        <v>143100</v>
+        <v>142700</v>
       </c>
       <c r="I66" s="3">
-        <v>99700</v>
+        <v>99400</v>
       </c>
       <c r="J66" s="3">
-        <v>78700</v>
+        <v>78500</v>
       </c>
       <c r="K66" s="3">
         <v>74900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-995200</v>
+        <v>-992500</v>
       </c>
       <c r="E72" s="3">
-        <v>-960100</v>
+        <v>-957400</v>
       </c>
       <c r="F72" s="3">
-        <v>-910000</v>
+        <v>-907500</v>
       </c>
       <c r="G72" s="3">
-        <v>-858100</v>
+        <v>-855800</v>
       </c>
       <c r="H72" s="3">
-        <v>-811800</v>
+        <v>-809600</v>
       </c>
       <c r="I72" s="3">
-        <v>-771800</v>
+        <v>-769700</v>
       </c>
       <c r="J72" s="3">
-        <v>-742100</v>
+        <v>-740000</v>
       </c>
       <c r="K72" s="3">
         <v>-728900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46600</v>
+        <v>46500</v>
       </c>
       <c r="E76" s="3">
-        <v>81800</v>
+        <v>81500</v>
       </c>
       <c r="F76" s="3">
-        <v>92400</v>
+        <v>92200</v>
       </c>
       <c r="G76" s="3">
-        <v>144300</v>
+        <v>143900</v>
       </c>
       <c r="H76" s="3">
-        <v>64600</v>
+        <v>64400</v>
       </c>
       <c r="I76" s="3">
-        <v>104600</v>
+        <v>104300</v>
       </c>
       <c r="J76" s="3">
-        <v>134500</v>
+        <v>134100</v>
       </c>
       <c r="K76" s="3">
         <v>153400</v>
@@ -3051,22 +3051,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35200</v>
+        <v>-35100</v>
       </c>
       <c r="E81" s="3">
-        <v>-50700</v>
+        <v>-50600</v>
       </c>
       <c r="F81" s="3">
-        <v>-58200</v>
+        <v>-58000</v>
       </c>
       <c r="G81" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="H81" s="3">
-        <v>-40000</v>
+        <v>-39800</v>
       </c>
       <c r="I81" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="J81" s="3">
         <v>-17800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35400</v>
+        <v>38100</v>
       </c>
       <c r="E83" s="3">
-        <v>38200</v>
+        <v>40400</v>
       </c>
       <c r="F83" s="3">
-        <v>40500</v>
+        <v>42500</v>
       </c>
       <c r="G83" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="H83" s="3">
-        <v>41400</v>
+        <v>44100</v>
       </c>
       <c r="I83" s="3">
-        <v>44300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>44100</v>
+        <v>44000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>42300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14000</v>
+        <v>-20400</v>
       </c>
       <c r="E89" s="3">
-        <v>-20500</v>
+        <v>-23400</v>
       </c>
       <c r="F89" s="3">
-        <v>-23500</v>
+        <v>-26300</v>
       </c>
       <c r="G89" s="3">
-        <v>-26400</v>
+        <v>11400</v>
       </c>
       <c r="H89" s="3">
-        <v>11500</v>
+        <v>17400</v>
       </c>
       <c r="I89" s="3">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="J89" s="3">
-        <v>14600</v>
+        <v>32600</v>
       </c>
       <c r="K89" s="3">
         <v>33000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13800</v>
+        <v>-17300</v>
       </c>
       <c r="E91" s="3">
-        <v>-17400</v>
+        <v>-21800</v>
       </c>
       <c r="F91" s="3">
-        <v>-21900</v>
+        <v>-22500</v>
       </c>
       <c r="G91" s="3">
-        <v>-22500</v>
+        <v>-29800</v>
       </c>
       <c r="H91" s="3">
-        <v>-29800</v>
+        <v>-25100</v>
       </c>
       <c r="I91" s="3">
-        <v>-25200</v>
+        <v>-23900</v>
       </c>
       <c r="J91" s="3">
-        <v>-24000</v>
+        <v>-18800</v>
       </c>
       <c r="K91" s="3">
         <v>-19000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13200</v>
+        <v>-29300</v>
       </c>
       <c r="E94" s="3">
-        <v>-29400</v>
+        <v>-24800</v>
       </c>
       <c r="F94" s="3">
-        <v>-24900</v>
+        <v>-25100</v>
       </c>
       <c r="G94" s="3">
-        <v>-25200</v>
+        <v>-47200</v>
       </c>
       <c r="H94" s="3">
-        <v>-47300</v>
+        <v>-40300</v>
       </c>
       <c r="I94" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-38800</v>
+        <v>-38700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-37600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11700</v>
+        <v>57900</v>
       </c>
       <c r="E100" s="3">
-        <v>58000</v>
+        <v>-1500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1500</v>
+        <v>112800</v>
       </c>
       <c r="G100" s="3">
-        <v>113200</v>
+        <v>36200</v>
       </c>
       <c r="H100" s="3">
-        <v>36300</v>
+        <v>25500</v>
       </c>
       <c r="I100" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>12800</v>
+        <v>12700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-12900</v>
@@ -3728,8 +3728,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10800</v>
+        <v>8200</v>
       </c>
       <c r="E102" s="3">
-        <v>8200</v>
+        <v>-49700</v>
       </c>
       <c r="F102" s="3">
-        <v>-49800</v>
+        <v>61400</v>
       </c>
       <c r="G102" s="3">
-        <v>61600</v>
+        <v>400</v>
       </c>
       <c r="H102" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="I102" s="3">
-        <v>2600</v>
+        <v>-11400</v>
       </c>
       <c r="J102" s="3">
-        <v>-11500</v>
+        <v>-17400</v>
       </c>
       <c r="K102" s="3">
         <v>-17500</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E8" s="3">
         <v>136200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147900</v>
       </c>
-      <c r="F8" s="3">
-        <v>148200</v>
-      </c>
       <c r="G8" s="3">
-        <v>160300</v>
+        <v>148300</v>
       </c>
       <c r="H8" s="3">
+        <v>160400</v>
+      </c>
+      <c r="I8" s="3">
         <v>179200</v>
       </c>
-      <c r="I8" s="3">
-        <v>192300</v>
-      </c>
       <c r="J8" s="3">
+        <v>192400</v>
+      </c>
+      <c r="K8" s="3">
         <v>212200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>248700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>268700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E9" s="3">
         <v>122300</v>
       </c>
-      <c r="E9" s="3">
-        <v>141700</v>
-      </c>
       <c r="F9" s="3">
+        <v>141800</v>
+      </c>
+      <c r="G9" s="3">
         <v>148900</v>
       </c>
-      <c r="G9" s="3">
-        <v>134900</v>
-      </c>
       <c r="H9" s="3">
-        <v>134300</v>
+        <v>135000</v>
       </c>
       <c r="I9" s="3">
-        <v>151100</v>
+        <v>134400</v>
       </c>
       <c r="J9" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K9" s="3">
         <v>158500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>181600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>227000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>206700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>13900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25400</v>
       </c>
-      <c r="H10" s="3">
-        <v>44800</v>
-      </c>
       <c r="I10" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J10" s="3">
         <v>41200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>53700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>67100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,68 +941,74 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-9100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E15" s="3">
         <v>6700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>42500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>166000</v>
+        <v>165400</v>
       </c>
       <c r="E17" s="3">
-        <v>194200</v>
+        <v>166100</v>
       </c>
       <c r="F17" s="3">
-        <v>206500</v>
+        <v>194300</v>
       </c>
       <c r="G17" s="3">
-        <v>207800</v>
+        <v>206600</v>
       </c>
       <c r="H17" s="3">
-        <v>218900</v>
+        <v>207900</v>
       </c>
       <c r="I17" s="3">
-        <v>223200</v>
+        <v>219000</v>
       </c>
       <c r="J17" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K17" s="3">
         <v>229900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>260000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>309800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>291600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-58300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-47400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-39700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,101 +1115,108 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8400</v>
+        <v>-4600</v>
       </c>
       <c r="E21" s="3">
-        <v>-5300</v>
+        <v>5500</v>
       </c>
       <c r="F21" s="3">
-        <v>-14200</v>
+        <v>-7600</v>
       </c>
       <c r="G21" s="3">
-        <v>-4200</v>
+        <v>-16200</v>
       </c>
       <c r="H21" s="3">
-        <v>4400</v>
+        <v>-3000</v>
       </c>
       <c r="I21" s="3">
-        <v>12600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>30700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>20100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-50500</v>
-      </c>
       <c r="F23" s="3">
-        <v>-57900</v>
+        <v>-50600</v>
       </c>
       <c r="G23" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-46700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-58000</v>
-      </c>
       <c r="G26" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-46200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-39800</v>
-      </c>
       <c r="I26" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-29700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-35900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-58000</v>
-      </c>
       <c r="G27" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-46200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-39800</v>
-      </c>
       <c r="I27" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-29700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-35900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-58000</v>
-      </c>
       <c r="G33" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-46200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-39800</v>
-      </c>
       <c r="I33" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-29700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-35900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-58000</v>
-      </c>
       <c r="G35" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-46200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-39800</v>
-      </c>
       <c r="I35" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-29700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-35900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,56 +1817,60 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
         <v>20100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1797,159 +1886,174 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E43" s="3">
         <v>14300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
-        <v>4400</v>
-      </c>
       <c r="I45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E46" s="3">
         <v>47300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67400</v>
       </c>
-      <c r="F46" s="3">
-        <v>43600</v>
-      </c>
       <c r="G46" s="3">
-        <v>86700</v>
+        <v>43700</v>
       </c>
       <c r="H46" s="3">
+        <v>86800</v>
+      </c>
+      <c r="I46" s="3">
         <v>26800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1983,81 +2087,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104000</v>
+        <v>92300</v>
       </c>
       <c r="E48" s="3">
-        <v>116100</v>
+        <v>104100</v>
       </c>
       <c r="F48" s="3">
-        <v>109400</v>
+        <v>116200</v>
       </c>
       <c r="G48" s="3">
-        <v>113200</v>
+        <v>109500</v>
       </c>
       <c r="H48" s="3">
+        <v>113300</v>
+      </c>
+      <c r="I48" s="3">
         <v>113900</v>
       </c>
-      <c r="I48" s="3">
-        <v>111300</v>
-      </c>
       <c r="J48" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K48" s="3">
         <v>113800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>120300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>132100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>136900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E49" s="3">
         <v>11000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E52" s="3">
         <v>42600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>45800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>47300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>46000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>204900</v>
+        <v>189300</v>
       </c>
       <c r="E54" s="3">
-        <v>239300</v>
+        <v>205000</v>
       </c>
       <c r="F54" s="3">
-        <v>213700</v>
+        <v>239400</v>
       </c>
       <c r="G54" s="3">
-        <v>263000</v>
+        <v>213800</v>
       </c>
       <c r="H54" s="3">
-        <v>207100</v>
+        <v>263200</v>
       </c>
       <c r="I54" s="3">
-        <v>203700</v>
+        <v>207200</v>
       </c>
       <c r="J54" s="3">
+        <v>203800</v>
+      </c>
+      <c r="K54" s="3">
         <v>212600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>228300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>253600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>277000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,170 +2397,183 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E58" s="3">
         <v>42900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>63100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>75200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>38200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E59" s="3">
         <v>48200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46500</v>
       </c>
-      <c r="F59" s="3">
-        <v>49400</v>
-      </c>
       <c r="G59" s="3">
-        <v>50700</v>
+        <v>49500</v>
       </c>
       <c r="H59" s="3">
+        <v>50800</v>
+      </c>
+      <c r="I59" s="3">
         <v>57700</v>
       </c>
-      <c r="I59" s="3">
-        <v>53600</v>
-      </c>
       <c r="J59" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K59" s="3">
         <v>52500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E60" s="3">
         <v>99900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99500</v>
       </c>
-      <c r="F60" s="3">
-        <v>118800</v>
-      </c>
       <c r="G60" s="3">
-        <v>103200</v>
+        <v>118900</v>
       </c>
       <c r="H60" s="3">
-        <v>140400</v>
+        <v>103300</v>
       </c>
       <c r="I60" s="3">
+        <v>140500</v>
+      </c>
+      <c r="J60" s="3">
         <v>96100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>74100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>69400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>69900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E61" s="3">
         <v>55700</v>
       </c>
-      <c r="E61" s="3">
-        <v>55500</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>55600</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>12700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2442,50 +2584,56 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>12900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E62" s="3">
         <v>2800</v>
       </c>
       <c r="F62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170700</v>
+      </c>
+      <c r="E66" s="3">
         <v>158400</v>
       </c>
-      <c r="E66" s="3">
-        <v>157800</v>
-      </c>
       <c r="F66" s="3">
-        <v>121500</v>
+        <v>157900</v>
       </c>
       <c r="G66" s="3">
-        <v>119100</v>
+        <v>121600</v>
       </c>
       <c r="H66" s="3">
-        <v>142700</v>
+        <v>119200</v>
       </c>
       <c r="I66" s="3">
+        <v>142800</v>
+      </c>
+      <c r="J66" s="3">
         <v>99400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-992500</v>
+        <v>-1039300</v>
       </c>
       <c r="E72" s="3">
-        <v>-957400</v>
+        <v>-993000</v>
       </c>
       <c r="F72" s="3">
-        <v>-907500</v>
+        <v>-957900</v>
       </c>
       <c r="G72" s="3">
-        <v>-855800</v>
+        <v>-907900</v>
       </c>
       <c r="H72" s="3">
-        <v>-809600</v>
+        <v>-856200</v>
       </c>
       <c r="I72" s="3">
-        <v>-769700</v>
+        <v>-810000</v>
       </c>
       <c r="J72" s="3">
+        <v>-770100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-740000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-728900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-718500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-674000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E76" s="3">
         <v>46500</v>
       </c>
-      <c r="E76" s="3">
-        <v>81500</v>
-      </c>
       <c r="F76" s="3">
+        <v>81600</v>
+      </c>
+      <c r="G76" s="3">
         <v>92200</v>
       </c>
-      <c r="G76" s="3">
-        <v>143900</v>
-      </c>
       <c r="H76" s="3">
+        <v>144000</v>
+      </c>
+      <c r="I76" s="3">
         <v>64400</v>
       </c>
-      <c r="I76" s="3">
-        <v>104300</v>
-      </c>
       <c r="J76" s="3">
+        <v>104400</v>
+      </c>
+      <c r="K76" s="3">
         <v>134100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>165700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>199100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-58000</v>
-      </c>
       <c r="G81" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-46200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-39800</v>
-      </c>
       <c r="I81" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-29700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-35900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F83" s="3">
         <v>38100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>40400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>42500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>41300</v>
       </c>
-      <c r="H83" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>44000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="J83" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>42300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-20400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-26300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17400</v>
       </c>
-      <c r="I89" s="3">
-        <v>14500</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17300</v>
+        <v>-13700</v>
       </c>
       <c r="E91" s="3">
-        <v>-21800</v>
+        <v>-13800</v>
       </c>
       <c r="F91" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-22500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-29800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-25100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-24800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-47200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-40300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="J94" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-37600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F100" s="3">
         <v>57900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>112800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>36200</v>
-      </c>
       <c r="H100" s="3">
+        <v>112900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>36300</v>
+      </c>
+      <c r="J100" s="3">
         <v>25500</v>
       </c>
-      <c r="I100" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-12900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3728,55 +3976,61 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F102" s="3">
         <v>8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-49700</v>
       </c>
-      <c r="F102" s="3">
-        <v>61400</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>61500</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -726,10 +726,10 @@
         <v>126100</v>
       </c>
       <c r="E8" s="3">
-        <v>136200</v>
+        <v>136300</v>
       </c>
       <c r="F8" s="3">
-        <v>147900</v>
+        <v>148000</v>
       </c>
       <c r="G8" s="3">
         <v>148300</v>
@@ -738,10 +738,10 @@
         <v>160400</v>
       </c>
       <c r="I8" s="3">
-        <v>179200</v>
+        <v>179300</v>
       </c>
       <c r="J8" s="3">
-        <v>192400</v>
+        <v>192500</v>
       </c>
       <c r="K8" s="3">
         <v>212200</v>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>124200</v>
+        <v>124300</v>
       </c>
       <c r="E9" s="3">
         <v>122300</v>
@@ -771,7 +771,7 @@
         <v>141800</v>
       </c>
       <c r="G9" s="3">
-        <v>148900</v>
+        <v>149000</v>
       </c>
       <c r="H9" s="3">
         <v>135000</v>
@@ -1030,10 +1030,10 @@
         <v>165400</v>
       </c>
       <c r="E17" s="3">
-        <v>166100</v>
+        <v>166200</v>
       </c>
       <c r="F17" s="3">
-        <v>194300</v>
+        <v>194400</v>
       </c>
       <c r="G17" s="3">
         <v>206600</v>
@@ -1081,7 +1081,7 @@
         <v>-47500</v>
       </c>
       <c r="I18" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="J18" s="3">
         <v>-30900</v>
@@ -1176,7 +1176,7 @@
         <v>-3000</v>
       </c>
       <c r="I21" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J21" s="3">
         <v>12700</v>
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="E26" s="3">
         <v>-35100</v>
@@ -1368,7 +1368,7 @@
         <v>-58100</v>
       </c>
       <c r="H26" s="3">
-        <v>-46200</v>
+        <v>-46300</v>
       </c>
       <c r="I26" s="3">
         <v>-39900</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="E27" s="3">
         <v>-35100</v>
@@ -1407,7 +1407,7 @@
         <v>-58100</v>
       </c>
       <c r="H27" s="3">
-        <v>-46200</v>
+        <v>-46300</v>
       </c>
       <c r="I27" s="3">
         <v>-39900</v>
@@ -1629,7 +1629,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="E33" s="3">
         <v>-35100</v>
@@ -1641,7 +1641,7 @@
         <v>-58100</v>
       </c>
       <c r="H33" s="3">
-        <v>-46200</v>
+        <v>-46300</v>
       </c>
       <c r="I33" s="3">
         <v>-39900</v>
@@ -1707,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="E35" s="3">
         <v>-35100</v>
@@ -1719,7 +1719,7 @@
         <v>-58100</v>
       </c>
       <c r="H35" s="3">
-        <v>-46200</v>
+        <v>-46300</v>
       </c>
       <c r="I35" s="3">
         <v>-39900</v>
@@ -2112,7 +2112,7 @@
         <v>113300</v>
       </c>
       <c r="I48" s="3">
-        <v>113900</v>
+        <v>114000</v>
       </c>
       <c r="J48" s="3">
         <v>111400</v>
@@ -2265,13 +2265,13 @@
         <v>45800</v>
       </c>
       <c r="H52" s="3">
-        <v>43600</v>
+        <v>43700</v>
       </c>
       <c r="I52" s="3">
         <v>44600</v>
       </c>
       <c r="J52" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="K52" s="3">
         <v>46000</v>
@@ -2331,16 +2331,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189300</v>
+        <v>189400</v>
       </c>
       <c r="E54" s="3">
         <v>205000</v>
       </c>
       <c r="F54" s="3">
-        <v>239400</v>
+        <v>239500</v>
       </c>
       <c r="G54" s="3">
-        <v>213800</v>
+        <v>213900</v>
       </c>
       <c r="H54" s="3">
         <v>263200</v>
@@ -2349,7 +2349,7 @@
         <v>207200</v>
       </c>
       <c r="J54" s="3">
-        <v>203800</v>
+        <v>203900</v>
       </c>
       <c r="K54" s="3">
         <v>212600</v>
@@ -2455,7 +2455,7 @@
         <v>63100</v>
       </c>
       <c r="H58" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="I58" s="3">
         <v>75200</v>
@@ -2497,7 +2497,7 @@
         <v>50800</v>
       </c>
       <c r="I59" s="3">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="J59" s="3">
         <v>53700</v>
@@ -2524,7 +2524,7 @@
         <v>96900</v>
       </c>
       <c r="E60" s="3">
-        <v>99900</v>
+        <v>100000</v>
       </c>
       <c r="F60" s="3">
         <v>99500</v>
@@ -2755,10 +2755,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170700</v>
+        <v>170800</v>
       </c>
       <c r="E66" s="3">
-        <v>158400</v>
+        <v>158500</v>
       </c>
       <c r="F66" s="3">
         <v>157900</v>
@@ -2773,7 +2773,7 @@
         <v>142800</v>
       </c>
       <c r="J66" s="3">
-        <v>99400</v>
+        <v>99500</v>
       </c>
       <c r="K66" s="3">
         <v>78500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1039300</v>
+        <v>-1039600</v>
       </c>
       <c r="E72" s="3">
-        <v>-993000</v>
+        <v>-993200</v>
       </c>
       <c r="F72" s="3">
-        <v>-957900</v>
+        <v>-958100</v>
       </c>
       <c r="G72" s="3">
-        <v>-907900</v>
+        <v>-908100</v>
       </c>
       <c r="H72" s="3">
-        <v>-856200</v>
+        <v>-856400</v>
       </c>
       <c r="I72" s="3">
-        <v>-810000</v>
+        <v>-810100</v>
       </c>
       <c r="J72" s="3">
-        <v>-770100</v>
+        <v>-770300</v>
       </c>
       <c r="K72" s="3">
         <v>-740000</v>
@@ -3126,7 +3126,7 @@
         <v>18600</v>
       </c>
       <c r="E76" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="F76" s="3">
         <v>81600</v>
@@ -3245,7 +3245,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="E81" s="3">
         <v>-35100</v>
@@ -3257,7 +3257,7 @@
         <v>-58100</v>
       </c>
       <c r="H81" s="3">
-        <v>-46200</v>
+        <v>-46300</v>
       </c>
       <c r="I81" s="3">
         <v>-39900</v>
@@ -3723,7 +3723,7 @@
         <v>-25100</v>
       </c>
       <c r="I94" s="3">
-        <v>-47200</v>
+        <v>-47300</v>
       </c>
       <c r="J94" s="3">
         <v>-40400</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="E8" s="3">
-        <v>136300</v>
+        <v>136200</v>
       </c>
       <c r="F8" s="3">
-        <v>148000</v>
+        <v>147900</v>
       </c>
       <c r="G8" s="3">
-        <v>148300</v>
+        <v>148200</v>
       </c>
       <c r="H8" s="3">
-        <v>160400</v>
+        <v>160300</v>
       </c>
       <c r="I8" s="3">
-        <v>179300</v>
+        <v>179200</v>
       </c>
       <c r="J8" s="3">
-        <v>192500</v>
+        <v>192300</v>
       </c>
       <c r="K8" s="3">
         <v>212200</v>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>124300</v>
+        <v>124200</v>
       </c>
       <c r="E9" s="3">
         <v>122300</v>
@@ -771,13 +771,13 @@
         <v>141800</v>
       </c>
       <c r="G9" s="3">
-        <v>149000</v>
+        <v>148900</v>
       </c>
       <c r="H9" s="3">
-        <v>135000</v>
+        <v>134900</v>
       </c>
       <c r="I9" s="3">
-        <v>134400</v>
+        <v>134300</v>
       </c>
       <c r="J9" s="3">
         <v>151200</v>
@@ -816,7 +816,7 @@
         <v>25400</v>
       </c>
       <c r="I10" s="3">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="J10" s="3">
         <v>41200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>165400</v>
+        <v>165300</v>
       </c>
       <c r="E17" s="3">
-        <v>166200</v>
+        <v>166100</v>
       </c>
       <c r="F17" s="3">
-        <v>194400</v>
+        <v>194300</v>
       </c>
       <c r="G17" s="3">
-        <v>206600</v>
+        <v>206500</v>
       </c>
       <c r="H17" s="3">
-        <v>207900</v>
+        <v>207800</v>
       </c>
       <c r="I17" s="3">
-        <v>219000</v>
+        <v>218900</v>
       </c>
       <c r="J17" s="3">
-        <v>223300</v>
+        <v>223200</v>
       </c>
       <c r="K17" s="3">
         <v>229900</v>
@@ -1078,10 +1078,10 @@
         <v>-58300</v>
       </c>
       <c r="H18" s="3">
-        <v>-47500</v>
+        <v>-47400</v>
       </c>
       <c r="I18" s="3">
-        <v>-39800</v>
+        <v>-39700</v>
       </c>
       <c r="J18" s="3">
         <v>-30900</v>
@@ -1176,7 +1176,7 @@
         <v>-3000</v>
       </c>
       <c r="I21" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J21" s="3">
         <v>12700</v>
@@ -1245,10 +1245,10 @@
         <v>-35000</v>
       </c>
       <c r="F23" s="3">
-        <v>-50600</v>
+        <v>-50500</v>
       </c>
       <c r="G23" s="3">
-        <v>-58000</v>
+        <v>-57900</v>
       </c>
       <c r="H23" s="3">
         <v>-46700</v>
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46400</v>
+        <v>-46300</v>
       </c>
       <c r="E26" s="3">
         <v>-35100</v>
@@ -1365,13 +1365,13 @@
         <v>-50600</v>
       </c>
       <c r="G26" s="3">
-        <v>-58100</v>
+        <v>-58000</v>
       </c>
       <c r="H26" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="I26" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="J26" s="3">
         <v>-29700</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46400</v>
+        <v>-46300</v>
       </c>
       <c r="E27" s="3">
         <v>-35100</v>
@@ -1404,13 +1404,13 @@
         <v>-50600</v>
       </c>
       <c r="G27" s="3">
-        <v>-58100</v>
+        <v>-58000</v>
       </c>
       <c r="H27" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="I27" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="J27" s="3">
         <v>-29700</v>
@@ -1629,7 +1629,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46400</v>
+        <v>-46300</v>
       </c>
       <c r="E33" s="3">
         <v>-35100</v>
@@ -1638,13 +1638,13 @@
         <v>-50600</v>
       </c>
       <c r="G33" s="3">
-        <v>-58100</v>
+        <v>-58000</v>
       </c>
       <c r="H33" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="I33" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="J33" s="3">
         <v>-29700</v>
@@ -1707,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46400</v>
+        <v>-46300</v>
       </c>
       <c r="E35" s="3">
         <v>-35100</v>
@@ -1716,13 +1716,13 @@
         <v>-50600</v>
       </c>
       <c r="G35" s="3">
-        <v>-58100</v>
+        <v>-58000</v>
       </c>
       <c r="H35" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="I35" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="J35" s="3">
         <v>-29700</v>
@@ -1995,7 +1995,7 @@
         <v>4900</v>
       </c>
       <c r="I45" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J45" s="3">
         <v>3600</v>
@@ -2028,10 +2028,10 @@
         <v>67400</v>
       </c>
       <c r="G46" s="3">
-        <v>43700</v>
+        <v>43600</v>
       </c>
       <c r="H46" s="3">
-        <v>86800</v>
+        <v>86700</v>
       </c>
       <c r="I46" s="3">
         <v>26800</v>
@@ -2100,22 +2100,22 @@
         <v>92300</v>
       </c>
       <c r="E48" s="3">
-        <v>104100</v>
+        <v>104000</v>
       </c>
       <c r="F48" s="3">
-        <v>116200</v>
+        <v>116100</v>
       </c>
       <c r="G48" s="3">
-        <v>109500</v>
+        <v>109400</v>
       </c>
       <c r="H48" s="3">
-        <v>113300</v>
+        <v>113200</v>
       </c>
       <c r="I48" s="3">
-        <v>114000</v>
+        <v>113900</v>
       </c>
       <c r="J48" s="3">
-        <v>111400</v>
+        <v>111300</v>
       </c>
       <c r="K48" s="3">
         <v>113800</v>
@@ -2265,13 +2265,13 @@
         <v>45800</v>
       </c>
       <c r="H52" s="3">
-        <v>43700</v>
+        <v>43600</v>
       </c>
       <c r="I52" s="3">
         <v>44600</v>
       </c>
       <c r="J52" s="3">
-        <v>47400</v>
+        <v>47300</v>
       </c>
       <c r="K52" s="3">
         <v>46000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189400</v>
+        <v>189300</v>
       </c>
       <c r="E54" s="3">
-        <v>205000</v>
+        <v>204900</v>
       </c>
       <c r="F54" s="3">
-        <v>239500</v>
+        <v>239400</v>
       </c>
       <c r="G54" s="3">
-        <v>213900</v>
+        <v>213700</v>
       </c>
       <c r="H54" s="3">
-        <v>263200</v>
+        <v>263100</v>
       </c>
       <c r="I54" s="3">
-        <v>207200</v>
+        <v>207100</v>
       </c>
       <c r="J54" s="3">
-        <v>203900</v>
+        <v>203700</v>
       </c>
       <c r="K54" s="3">
         <v>212600</v>
@@ -2443,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42600</v>
+        <v>42500</v>
       </c>
       <c r="E58" s="3">
         <v>42900</v>
@@ -2455,7 +2455,7 @@
         <v>63100</v>
       </c>
       <c r="H58" s="3">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="I58" s="3">
         <v>75200</v>
@@ -2482,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47000</v>
+        <v>46900</v>
       </c>
       <c r="E59" s="3">
         <v>48200</v>
@@ -2491,16 +2491,16 @@
         <v>46500</v>
       </c>
       <c r="G59" s="3">
-        <v>49500</v>
+        <v>49400</v>
       </c>
       <c r="H59" s="3">
-        <v>50800</v>
+        <v>50700</v>
       </c>
       <c r="I59" s="3">
-        <v>57800</v>
+        <v>57700</v>
       </c>
       <c r="J59" s="3">
-        <v>53700</v>
+        <v>53600</v>
       </c>
       <c r="K59" s="3">
         <v>52500</v>
@@ -2521,22 +2521,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96900</v>
+        <v>96800</v>
       </c>
       <c r="E60" s="3">
-        <v>100000</v>
+        <v>99900</v>
       </c>
       <c r="F60" s="3">
         <v>99500</v>
       </c>
       <c r="G60" s="3">
-        <v>118900</v>
+        <v>118800</v>
       </c>
       <c r="H60" s="3">
         <v>103300</v>
       </c>
       <c r="I60" s="3">
-        <v>140500</v>
+        <v>140400</v>
       </c>
       <c r="J60" s="3">
         <v>96100</v>
@@ -2566,7 +2566,7 @@
         <v>55700</v>
       </c>
       <c r="F61" s="3">
-        <v>55600</v>
+        <v>55500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170800</v>
+        <v>170700</v>
       </c>
       <c r="E66" s="3">
-        <v>158500</v>
+        <v>158400</v>
       </c>
       <c r="F66" s="3">
-        <v>157900</v>
+        <v>157800</v>
       </c>
       <c r="G66" s="3">
-        <v>121600</v>
+        <v>121500</v>
       </c>
       <c r="H66" s="3">
-        <v>119200</v>
+        <v>119100</v>
       </c>
       <c r="I66" s="3">
-        <v>142800</v>
+        <v>142700</v>
       </c>
       <c r="J66" s="3">
-        <v>99500</v>
+        <v>99400</v>
       </c>
       <c r="K66" s="3">
         <v>78500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1039600</v>
+        <v>-1038900</v>
       </c>
       <c r="E72" s="3">
-        <v>-993200</v>
+        <v>-992600</v>
       </c>
       <c r="F72" s="3">
-        <v>-958100</v>
+        <v>-957500</v>
       </c>
       <c r="G72" s="3">
-        <v>-908100</v>
+        <v>-907500</v>
       </c>
       <c r="H72" s="3">
-        <v>-856400</v>
+        <v>-855900</v>
       </c>
       <c r="I72" s="3">
-        <v>-810100</v>
+        <v>-809600</v>
       </c>
       <c r="J72" s="3">
-        <v>-770300</v>
+        <v>-769800</v>
       </c>
       <c r="K72" s="3">
         <v>-740000</v>
@@ -3126,22 +3126,22 @@
         <v>18600</v>
       </c>
       <c r="E76" s="3">
-        <v>46600</v>
+        <v>46500</v>
       </c>
       <c r="F76" s="3">
-        <v>81600</v>
+        <v>81500</v>
       </c>
       <c r="G76" s="3">
         <v>92200</v>
       </c>
       <c r="H76" s="3">
-        <v>144000</v>
+        <v>143900</v>
       </c>
       <c r="I76" s="3">
         <v>64400</v>
       </c>
       <c r="J76" s="3">
-        <v>104400</v>
+        <v>104300</v>
       </c>
       <c r="K76" s="3">
         <v>134100</v>
@@ -3245,7 +3245,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46400</v>
+        <v>-46300</v>
       </c>
       <c r="E81" s="3">
         <v>-35100</v>
@@ -3254,13 +3254,13 @@
         <v>-50600</v>
       </c>
       <c r="G81" s="3">
-        <v>-58100</v>
+        <v>-58000</v>
       </c>
       <c r="H81" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="I81" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="J81" s="3">
         <v>-29700</v>
@@ -3591,13 +3591,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="E91" s="3">
         <v>-13800</v>
       </c>
       <c r="F91" s="3">
-        <v>-17400</v>
+        <v>-17300</v>
       </c>
       <c r="G91" s="3">
         <v>-21900</v>
@@ -3711,7 +3711,7 @@
         <v>-21700</v>
       </c>
       <c r="E94" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="F94" s="3">
         <v>-29300</v>
@@ -3723,10 +3723,10 @@
         <v>-25100</v>
       </c>
       <c r="I94" s="3">
-        <v>-47300</v>
+        <v>-47200</v>
       </c>
       <c r="J94" s="3">
-        <v>-40400</v>
+        <v>-40300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3935,7 +3935,7 @@
         <v>112900</v>
       </c>
       <c r="I100" s="3">
-        <v>36300</v>
+        <v>36200</v>
       </c>
       <c r="J100" s="3">
         <v>25500</v>
@@ -4010,7 +4010,7 @@
         <v>-49700</v>
       </c>
       <c r="H102" s="3">
-        <v>61500</v>
+        <v>61400</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>126000</v>
+        <v>126400</v>
       </c>
       <c r="E8" s="3">
-        <v>136200</v>
+        <v>136600</v>
       </c>
       <c r="F8" s="3">
-        <v>147900</v>
+        <v>148300</v>
       </c>
       <c r="G8" s="3">
-        <v>148200</v>
+        <v>148600</v>
       </c>
       <c r="H8" s="3">
-        <v>160300</v>
+        <v>160800</v>
       </c>
       <c r="I8" s="3">
-        <v>179200</v>
+        <v>179700</v>
       </c>
       <c r="J8" s="3">
-        <v>192300</v>
+        <v>192900</v>
       </c>
       <c r="K8" s="3">
         <v>212200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>124200</v>
+        <v>124600</v>
       </c>
       <c r="E9" s="3">
-        <v>122300</v>
+        <v>122600</v>
       </c>
       <c r="F9" s="3">
-        <v>141800</v>
+        <v>142200</v>
       </c>
       <c r="G9" s="3">
-        <v>148900</v>
+        <v>149300</v>
       </c>
       <c r="H9" s="3">
-        <v>134900</v>
+        <v>135300</v>
       </c>
       <c r="I9" s="3">
-        <v>134300</v>
+        <v>134700</v>
       </c>
       <c r="J9" s="3">
-        <v>151200</v>
+        <v>151600</v>
       </c>
       <c r="K9" s="3">
         <v>158500</v>
@@ -804,22 +804,22 @@
         <v>1800</v>
       </c>
       <c r="E10" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="F10" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G10" s="3">
         <v>-700</v>
       </c>
       <c r="H10" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="I10" s="3">
-        <v>44800</v>
+        <v>45000</v>
       </c>
       <c r="J10" s="3">
-        <v>41200</v>
+        <v>41300</v>
       </c>
       <c r="K10" s="3">
         <v>53700</v>
@@ -980,19 +980,19 @@
         <v>6700</v>
       </c>
       <c r="F15" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G15" s="3">
         <v>15500</v>
       </c>
       <c r="H15" s="3">
-        <v>42500</v>
+        <v>42600</v>
       </c>
       <c r="I15" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="J15" s="3">
-        <v>28400</v>
+        <v>28500</v>
       </c>
       <c r="K15" s="3">
         <v>28900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>165300</v>
+        <v>165800</v>
       </c>
       <c r="E17" s="3">
-        <v>166100</v>
+        <v>166500</v>
       </c>
       <c r="F17" s="3">
-        <v>194300</v>
+        <v>194800</v>
       </c>
       <c r="G17" s="3">
-        <v>206500</v>
+        <v>207100</v>
       </c>
       <c r="H17" s="3">
-        <v>207800</v>
+        <v>208400</v>
       </c>
       <c r="I17" s="3">
-        <v>218900</v>
+        <v>219500</v>
       </c>
       <c r="J17" s="3">
-        <v>223200</v>
+        <v>223800</v>
       </c>
       <c r="K17" s="3">
         <v>229900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39300</v>
+        <v>-39400</v>
       </c>
       <c r="E18" s="3">
-        <v>-29900</v>
+        <v>-30000</v>
       </c>
       <c r="F18" s="3">
-        <v>-46400</v>
+        <v>-46500</v>
       </c>
       <c r="G18" s="3">
-        <v>-58300</v>
+        <v>-58500</v>
       </c>
       <c r="H18" s="3">
-        <v>-47400</v>
+        <v>-47600</v>
       </c>
       <c r="I18" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="J18" s="3">
-        <v>-30900</v>
+        <v>-31000</v>
       </c>
       <c r="K18" s="3">
         <v>-17700</v>
@@ -1128,7 +1128,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>1700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4600</v>
+        <v>-3700</v>
       </c>
       <c r="E21" s="3">
-        <v>5500</v>
+        <v>8400</v>
       </c>
       <c r="F21" s="3">
-        <v>-7600</v>
+        <v>-5300</v>
       </c>
       <c r="G21" s="3">
-        <v>-16200</v>
+        <v>-14200</v>
       </c>
       <c r="H21" s="3">
-        <v>-3000</v>
+        <v>-4200</v>
       </c>
       <c r="I21" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>12700</v>
+        <v>4300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-44900</v>
+        <v>-45000</v>
       </c>
       <c r="E23" s="3">
-        <v>-35000</v>
+        <v>-35100</v>
       </c>
       <c r="F23" s="3">
-        <v>-50500</v>
+        <v>-50700</v>
       </c>
       <c r="G23" s="3">
-        <v>-57900</v>
+        <v>-58100</v>
       </c>
       <c r="H23" s="3">
-        <v>-46700</v>
+        <v>-46800</v>
       </c>
       <c r="I23" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="J23" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="K23" s="3">
         <v>-17700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="E26" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="F26" s="3">
-        <v>-50600</v>
+        <v>-50700</v>
       </c>
       <c r="G26" s="3">
-        <v>-58000</v>
+        <v>-58200</v>
       </c>
       <c r="H26" s="3">
-        <v>-46200</v>
+        <v>-46400</v>
       </c>
       <c r="I26" s="3">
-        <v>-39800</v>
+        <v>-40000</v>
       </c>
       <c r="J26" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="K26" s="3">
         <v>-17800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="E27" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="F27" s="3">
-        <v>-50600</v>
+        <v>-50700</v>
       </c>
       <c r="G27" s="3">
-        <v>-58000</v>
+        <v>-58200</v>
       </c>
       <c r="H27" s="3">
-        <v>-46200</v>
+        <v>-46400</v>
       </c>
       <c r="I27" s="3">
-        <v>-39800</v>
+        <v>-40000</v>
       </c>
       <c r="J27" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="K27" s="3">
         <v>-17800</v>
@@ -1596,7 +1596,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>-1700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="E33" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="F33" s="3">
-        <v>-50600</v>
+        <v>-50700</v>
       </c>
       <c r="G33" s="3">
-        <v>-58000</v>
+        <v>-58200</v>
       </c>
       <c r="H33" s="3">
-        <v>-46200</v>
+        <v>-46400</v>
       </c>
       <c r="I33" s="3">
-        <v>-39800</v>
+        <v>-40000</v>
       </c>
       <c r="J33" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="K33" s="3">
         <v>-17800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="E35" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="F35" s="3">
-        <v>-50600</v>
+        <v>-50700</v>
       </c>
       <c r="G35" s="3">
-        <v>-58000</v>
+        <v>-58200</v>
       </c>
       <c r="H35" s="3">
-        <v>-46200</v>
+        <v>-46400</v>
       </c>
       <c r="I35" s="3">
-        <v>-39800</v>
+        <v>-40000</v>
       </c>
       <c r="J35" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="K35" s="3">
         <v>-17800</v>
@@ -1824,19 +1824,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="E41" s="3">
         <v>20100</v>
       </c>
       <c r="F41" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="G41" s="3">
         <v>22700</v>
       </c>
       <c r="H41" s="3">
-        <v>74500</v>
+        <v>74700</v>
       </c>
       <c r="I41" s="3">
         <v>13500</v>
@@ -1911,7 +1911,7 @@
         <v>13600</v>
       </c>
       <c r="G43" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H43" s="3">
         <v>5600</v>
@@ -1983,7 +1983,7 @@
         <v>8900</v>
       </c>
       <c r="E45" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="F45" s="3">
         <v>14500</v>
@@ -1995,7 +1995,7 @@
         <v>4900</v>
       </c>
       <c r="I45" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J45" s="3">
         <v>3600</v>
@@ -2019,22 +2019,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="E46" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="F46" s="3">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="G46" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="H46" s="3">
-        <v>86700</v>
+        <v>87000</v>
       </c>
       <c r="I46" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="J46" s="3">
         <v>24700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>92300</v>
+        <v>92600</v>
       </c>
       <c r="E48" s="3">
-        <v>104000</v>
+        <v>104300</v>
       </c>
       <c r="F48" s="3">
-        <v>116100</v>
+        <v>116400</v>
       </c>
       <c r="G48" s="3">
-        <v>109400</v>
+        <v>109700</v>
       </c>
       <c r="H48" s="3">
-        <v>113200</v>
+        <v>113600</v>
       </c>
       <c r="I48" s="3">
-        <v>113900</v>
+        <v>114200</v>
       </c>
       <c r="J48" s="3">
-        <v>111300</v>
+        <v>111600</v>
       </c>
       <c r="K48" s="3">
         <v>113800</v>
@@ -2139,7 +2139,7 @@
         <v>10200</v>
       </c>
       <c r="E49" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F49" s="3">
         <v>12800</v>
@@ -2151,10 +2151,10 @@
         <v>19500</v>
       </c>
       <c r="I49" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="J49" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="K49" s="3">
         <v>21900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42200</v>
+        <v>42300</v>
       </c>
       <c r="E52" s="3">
-        <v>42600</v>
+        <v>42700</v>
       </c>
       <c r="F52" s="3">
-        <v>43100</v>
+        <v>43200</v>
       </c>
       <c r="G52" s="3">
-        <v>45800</v>
+        <v>45900</v>
       </c>
       <c r="H52" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="I52" s="3">
-        <v>44600</v>
+        <v>44700</v>
       </c>
       <c r="J52" s="3">
-        <v>47300</v>
+        <v>47500</v>
       </c>
       <c r="K52" s="3">
         <v>46000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189300</v>
+        <v>189800</v>
       </c>
       <c r="E54" s="3">
-        <v>204900</v>
+        <v>205500</v>
       </c>
       <c r="F54" s="3">
-        <v>239400</v>
+        <v>240000</v>
       </c>
       <c r="G54" s="3">
-        <v>213700</v>
+        <v>214300</v>
       </c>
       <c r="H54" s="3">
-        <v>263100</v>
+        <v>263800</v>
       </c>
       <c r="I54" s="3">
-        <v>207100</v>
+        <v>207700</v>
       </c>
       <c r="J54" s="3">
-        <v>203700</v>
+        <v>204300</v>
       </c>
       <c r="K54" s="3">
         <v>212600</v>
@@ -2404,7 +2404,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E57" s="3">
         <v>8800</v>
@@ -2419,7 +2419,7 @@
         <v>2200</v>
       </c>
       <c r="I57" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="J57" s="3">
         <v>4200</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="E58" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="F58" s="3">
-        <v>48000</v>
+        <v>48100</v>
       </c>
       <c r="G58" s="3">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="H58" s="3">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="I58" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="J58" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="K58" s="3">
         <v>12700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46900</v>
+        <v>47100</v>
       </c>
       <c r="E59" s="3">
-        <v>48200</v>
+        <v>48400</v>
       </c>
       <c r="F59" s="3">
-        <v>46500</v>
+        <v>46600</v>
       </c>
       <c r="G59" s="3">
-        <v>49400</v>
+        <v>49600</v>
       </c>
       <c r="H59" s="3">
-        <v>50700</v>
+        <v>50900</v>
       </c>
       <c r="I59" s="3">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="J59" s="3">
-        <v>53600</v>
+        <v>53800</v>
       </c>
       <c r="K59" s="3">
         <v>52500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96800</v>
+        <v>97100</v>
       </c>
       <c r="E60" s="3">
-        <v>99900</v>
+        <v>100200</v>
       </c>
       <c r="F60" s="3">
-        <v>99500</v>
+        <v>99800</v>
       </c>
       <c r="G60" s="3">
-        <v>118800</v>
+        <v>119200</v>
       </c>
       <c r="H60" s="3">
-        <v>103300</v>
+        <v>103600</v>
       </c>
       <c r="I60" s="3">
-        <v>140400</v>
+        <v>140800</v>
       </c>
       <c r="J60" s="3">
-        <v>96100</v>
+        <v>96400</v>
       </c>
       <c r="K60" s="3">
         <v>74100</v>
@@ -2560,19 +2560,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71100</v>
+        <v>71300</v>
       </c>
       <c r="E61" s="3">
+        <v>55800</v>
+      </c>
+      <c r="F61" s="3">
         <v>55700</v>
       </c>
-      <c r="F61" s="3">
-        <v>55500</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170700</v>
+        <v>171100</v>
       </c>
       <c r="E66" s="3">
-        <v>158400</v>
+        <v>158800</v>
       </c>
       <c r="F66" s="3">
-        <v>157800</v>
+        <v>158300</v>
       </c>
       <c r="G66" s="3">
-        <v>121500</v>
+        <v>121900</v>
       </c>
       <c r="H66" s="3">
-        <v>119100</v>
+        <v>119500</v>
       </c>
       <c r="I66" s="3">
-        <v>142700</v>
+        <v>143100</v>
       </c>
       <c r="J66" s="3">
-        <v>99400</v>
+        <v>99700</v>
       </c>
       <c r="K66" s="3">
         <v>78500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1038900</v>
+        <v>-1041900</v>
       </c>
       <c r="E72" s="3">
-        <v>-992600</v>
+        <v>-995500</v>
       </c>
       <c r="F72" s="3">
-        <v>-957500</v>
+        <v>-960300</v>
       </c>
       <c r="G72" s="3">
-        <v>-907500</v>
+        <v>-910200</v>
       </c>
       <c r="H72" s="3">
-        <v>-855900</v>
+        <v>-858300</v>
       </c>
       <c r="I72" s="3">
-        <v>-809600</v>
+        <v>-812000</v>
       </c>
       <c r="J72" s="3">
-        <v>-769800</v>
+        <v>-772000</v>
       </c>
       <c r="K72" s="3">
         <v>-740000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="E76" s="3">
-        <v>46500</v>
+        <v>46700</v>
       </c>
       <c r="F76" s="3">
-        <v>81500</v>
+        <v>81800</v>
       </c>
       <c r="G76" s="3">
-        <v>92200</v>
+        <v>92400</v>
       </c>
       <c r="H76" s="3">
-        <v>143900</v>
+        <v>144400</v>
       </c>
       <c r="I76" s="3">
-        <v>64400</v>
+        <v>64600</v>
       </c>
       <c r="J76" s="3">
-        <v>104300</v>
+        <v>104600</v>
       </c>
       <c r="K76" s="3">
         <v>134100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="E81" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="F81" s="3">
-        <v>-50600</v>
+        <v>-50700</v>
       </c>
       <c r="G81" s="3">
-        <v>-58000</v>
+        <v>-58200</v>
       </c>
       <c r="H81" s="3">
-        <v>-46200</v>
+        <v>-46400</v>
       </c>
       <c r="I81" s="3">
-        <v>-39800</v>
+        <v>-40000</v>
       </c>
       <c r="J81" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="K81" s="3">
         <v>-17800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="E83" s="3">
-        <v>35300</v>
+        <v>38200</v>
       </c>
       <c r="F83" s="3">
-        <v>38100</v>
+        <v>40500</v>
       </c>
       <c r="G83" s="3">
-        <v>40400</v>
+        <v>42600</v>
       </c>
       <c r="H83" s="3">
-        <v>42500</v>
+        <v>41400</v>
       </c>
       <c r="I83" s="3">
-        <v>41300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>44200</v>
+        <v>44300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7500</v>
+        <v>14000</v>
       </c>
       <c r="E89" s="3">
-        <v>14000</v>
+        <v>-20500</v>
       </c>
       <c r="F89" s="3">
-        <v>-20400</v>
+        <v>-23500</v>
       </c>
       <c r="G89" s="3">
-        <v>-23400</v>
+        <v>-26400</v>
       </c>
       <c r="H89" s="3">
-        <v>-26300</v>
+        <v>11500</v>
       </c>
       <c r="I89" s="3">
-        <v>11400</v>
+        <v>17500</v>
       </c>
       <c r="J89" s="3">
-        <v>17400</v>
+        <v>14600</v>
       </c>
       <c r="K89" s="3">
         <v>32600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="E91" s="3">
-        <v>-13800</v>
+        <v>-17400</v>
       </c>
       <c r="F91" s="3">
-        <v>-17300</v>
+        <v>-21900</v>
       </c>
       <c r="G91" s="3">
-        <v>-21900</v>
+        <v>-22500</v>
       </c>
       <c r="H91" s="3">
-        <v>-22500</v>
+        <v>-29900</v>
       </c>
       <c r="I91" s="3">
-        <v>-29800</v>
+        <v>-25200</v>
       </c>
       <c r="J91" s="3">
-        <v>-25100</v>
+        <v>-24000</v>
       </c>
       <c r="K91" s="3">
         <v>-18800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21700</v>
+        <v>-13200</v>
       </c>
       <c r="E94" s="3">
-        <v>-13100</v>
+        <v>-29400</v>
       </c>
       <c r="F94" s="3">
-        <v>-29300</v>
+        <v>-24900</v>
       </c>
       <c r="G94" s="3">
-        <v>-24800</v>
+        <v>-25200</v>
       </c>
       <c r="H94" s="3">
-        <v>-25100</v>
+        <v>-47400</v>
       </c>
       <c r="I94" s="3">
-        <v>-47200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-40300</v>
+        <v>-40500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18000</v>
+        <v>-11700</v>
       </c>
       <c r="E100" s="3">
-        <v>-11600</v>
+        <v>58000</v>
       </c>
       <c r="F100" s="3">
-        <v>57900</v>
+        <v>-1500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1500</v>
+        <v>113200</v>
       </c>
       <c r="H100" s="3">
-        <v>112900</v>
+        <v>36400</v>
       </c>
       <c r="I100" s="3">
-        <v>36200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>25500</v>
+        <v>25600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3976,8 +3976,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="E102" s="3">
-        <v>-10800</v>
+        <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>8200</v>
+        <v>-49900</v>
       </c>
       <c r="G102" s="3">
-        <v>-49700</v>
+        <v>61600</v>
       </c>
       <c r="H102" s="3">
-        <v>61400</v>
+        <v>400</v>
       </c>
       <c r="I102" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="J102" s="3">
-        <v>2600</v>
+        <v>-11500</v>
       </c>
       <c r="K102" s="3">
         <v>-17400</v>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>126400</v>
+        <v>114200</v>
       </c>
       <c r="E8" s="3">
-        <v>136600</v>
+        <v>126100</v>
       </c>
       <c r="F8" s="3">
+        <v>136300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>148000</v>
+      </c>
+      <c r="H8" s="3">
         <v>148300</v>
       </c>
-      <c r="G8" s="3">
-        <v>148600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>160800</v>
-      </c>
       <c r="I8" s="3">
-        <v>179700</v>
+        <v>160500</v>
       </c>
       <c r="J8" s="3">
+        <v>179300</v>
+      </c>
+      <c r="K8" s="3">
         <v>192900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>212200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>248700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>274400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>268700</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>124600</v>
+        <v>138800</v>
       </c>
       <c r="E9" s="3">
-        <v>122600</v>
+        <v>124300</v>
       </c>
       <c r="F9" s="3">
-        <v>142200</v>
+        <v>122400</v>
       </c>
       <c r="G9" s="3">
-        <v>149300</v>
+        <v>141900</v>
       </c>
       <c r="H9" s="3">
-        <v>135300</v>
+        <v>149000</v>
       </c>
       <c r="I9" s="3">
-        <v>134700</v>
+        <v>135100</v>
       </c>
       <c r="J9" s="3">
+        <v>134500</v>
+      </c>
+      <c r="K9" s="3">
         <v>151600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>158500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>181600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>227000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>206700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
-        <v>14000</v>
-      </c>
       <c r="F10" s="3">
-        <v>6200</v>
+        <v>13900</v>
       </c>
       <c r="G10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H10" s="3">
         <v>-700</v>
       </c>
-      <c r="H10" s="3">
-        <v>25500</v>
-      </c>
       <c r="I10" s="3">
-        <v>45000</v>
+        <v>25400</v>
       </c>
       <c r="J10" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K10" s="3">
         <v>41300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>67100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,71 +963,77 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-9100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>6500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6700</v>
       </c>
-      <c r="F15" s="3">
-        <v>9200</v>
-      </c>
       <c r="G15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H15" s="3">
         <v>15500</v>
       </c>
-      <c r="H15" s="3">
-        <v>42600</v>
-      </c>
       <c r="I15" s="3">
-        <v>41400</v>
+        <v>42500</v>
       </c>
       <c r="J15" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K15" s="3">
         <v>28500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>32900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>165800</v>
+        <v>189200</v>
       </c>
       <c r="E17" s="3">
-        <v>166500</v>
+        <v>165500</v>
       </c>
       <c r="F17" s="3">
-        <v>194800</v>
+        <v>166200</v>
       </c>
       <c r="G17" s="3">
-        <v>207100</v>
+        <v>194400</v>
       </c>
       <c r="H17" s="3">
-        <v>208400</v>
+        <v>206700</v>
       </c>
       <c r="I17" s="3">
-        <v>219500</v>
+        <v>208000</v>
       </c>
       <c r="J17" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K17" s="3">
         <v>223800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>229900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>260000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>309800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>291600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39400</v>
+        <v>-75000</v>
       </c>
       <c r="E18" s="3">
-        <v>-30000</v>
+        <v>-39300</v>
       </c>
       <c r="F18" s="3">
-        <v>-46500</v>
+        <v>-29900</v>
       </c>
       <c r="G18" s="3">
-        <v>-58500</v>
+        <v>-46400</v>
       </c>
       <c r="H18" s="3">
-        <v>-47600</v>
+        <v>-58400</v>
       </c>
       <c r="I18" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-39800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,110 +1148,117 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>700</v>
-      </c>
       <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3700</v>
+        <v>-48800</v>
       </c>
       <c r="E21" s="3">
-        <v>8400</v>
+        <v>-4600</v>
       </c>
       <c r="F21" s="3">
-        <v>-5300</v>
+        <v>5500</v>
       </c>
       <c r="G21" s="3">
-        <v>-14200</v>
+        <v>-7600</v>
       </c>
       <c r="H21" s="3">
-        <v>-4200</v>
+        <v>-16200</v>
       </c>
       <c r="I21" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>-3000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>30700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>20100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
         <v>5900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-45000</v>
+        <v>-89000</v>
       </c>
       <c r="E23" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-50700</v>
-      </c>
       <c r="G23" s="3">
-        <v>-58100</v>
+        <v>-50600</v>
       </c>
       <c r="H23" s="3">
-        <v>-46800</v>
+        <v>-58000</v>
       </c>
       <c r="I23" s="3">
-        <v>-40600</v>
+        <v>-46700</v>
       </c>
       <c r="J23" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-31500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-35200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46500</v>
+        <v>-112900</v>
       </c>
       <c r="E26" s="3">
-        <v>-35200</v>
+        <v>-46400</v>
       </c>
       <c r="F26" s="3">
-        <v>-50700</v>
+        <v>-35100</v>
       </c>
       <c r="G26" s="3">
-        <v>-58200</v>
+        <v>-50600</v>
       </c>
       <c r="H26" s="3">
-        <v>-46400</v>
+        <v>-58100</v>
       </c>
       <c r="I26" s="3">
-        <v>-40000</v>
+        <v>-46300</v>
       </c>
       <c r="J26" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-29800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-35900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46500</v>
+        <v>-112900</v>
       </c>
       <c r="E27" s="3">
-        <v>-35200</v>
+        <v>-46400</v>
       </c>
       <c r="F27" s="3">
-        <v>-50700</v>
+        <v>-35100</v>
       </c>
       <c r="G27" s="3">
-        <v>-58200</v>
+        <v>-50600</v>
       </c>
       <c r="H27" s="3">
-        <v>-46400</v>
+        <v>-58100</v>
       </c>
       <c r="I27" s="3">
-        <v>-40000</v>
+        <v>-46300</v>
       </c>
       <c r="J27" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-29800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-35900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-700</v>
-      </c>
       <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46500</v>
+        <v>-112900</v>
       </c>
       <c r="E33" s="3">
-        <v>-35200</v>
+        <v>-46400</v>
       </c>
       <c r="F33" s="3">
-        <v>-50700</v>
+        <v>-35100</v>
       </c>
       <c r="G33" s="3">
-        <v>-58200</v>
+        <v>-50600</v>
       </c>
       <c r="H33" s="3">
-        <v>-46400</v>
+        <v>-58100</v>
       </c>
       <c r="I33" s="3">
-        <v>-40000</v>
+        <v>-46300</v>
       </c>
       <c r="J33" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-29800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-35900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46500</v>
+        <v>-112900</v>
       </c>
       <c r="E35" s="3">
-        <v>-35200</v>
+        <v>-46400</v>
       </c>
       <c r="F35" s="3">
-        <v>-50700</v>
+        <v>-35100</v>
       </c>
       <c r="G35" s="3">
-        <v>-58200</v>
+        <v>-50600</v>
       </c>
       <c r="H35" s="3">
-        <v>-46400</v>
+        <v>-58100</v>
       </c>
       <c r="I35" s="3">
-        <v>-40000</v>
+        <v>-46300</v>
       </c>
       <c r="J35" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-29800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-35900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,62 +1903,66 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="E41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F41" s="3">
         <v>20100</v>
       </c>
-      <c r="F41" s="3">
-        <v>30900</v>
-      </c>
       <c r="G41" s="3">
+        <v>30800</v>
+      </c>
+      <c r="H41" s="3">
         <v>22700</v>
       </c>
-      <c r="H41" s="3">
-        <v>74700</v>
-      </c>
       <c r="I41" s="3">
+        <v>74600</v>
+      </c>
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E42" s="3">
         <v>12200</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1889,171 +1978,186 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E43" s="3">
         <v>13800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13600</v>
       </c>
-      <c r="G43" s="3">
-        <v>7500</v>
-      </c>
       <c r="H43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
-        <v>11700</v>
-      </c>
       <c r="F45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44800</v>
+        <v>33000</v>
       </c>
       <c r="E46" s="3">
-        <v>47400</v>
+        <v>44700</v>
       </c>
       <c r="F46" s="3">
-        <v>67600</v>
+        <v>47300</v>
       </c>
       <c r="G46" s="3">
-        <v>43800</v>
+        <v>67400</v>
       </c>
       <c r="H46" s="3">
-        <v>87000</v>
+        <v>43700</v>
       </c>
       <c r="I46" s="3">
-        <v>26900</v>
+        <v>86800</v>
       </c>
       <c r="J46" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K46" s="3">
         <v>24700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2090,87 +2194,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>92600</v>
+        <v>59600</v>
       </c>
       <c r="E48" s="3">
-        <v>104300</v>
+        <v>92400</v>
       </c>
       <c r="F48" s="3">
-        <v>116400</v>
+        <v>104100</v>
       </c>
       <c r="G48" s="3">
-        <v>109700</v>
+        <v>116200</v>
       </c>
       <c r="H48" s="3">
-        <v>113600</v>
+        <v>109500</v>
       </c>
       <c r="I48" s="3">
-        <v>114200</v>
+        <v>113300</v>
       </c>
       <c r="J48" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K48" s="3">
         <v>111600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>132100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>136900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
         <v>10200</v>
       </c>
-      <c r="E49" s="3">
-        <v>11100</v>
-      </c>
       <c r="F49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G49" s="3">
         <v>12800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42300</v>
+        <v>17800</v>
       </c>
       <c r="E52" s="3">
-        <v>42700</v>
+        <v>42200</v>
       </c>
       <c r="F52" s="3">
-        <v>43200</v>
+        <v>42600</v>
       </c>
       <c r="G52" s="3">
-        <v>45900</v>
+        <v>43100</v>
       </c>
       <c r="H52" s="3">
-        <v>43800</v>
+        <v>45800</v>
       </c>
       <c r="I52" s="3">
-        <v>44700</v>
+        <v>43700</v>
       </c>
       <c r="J52" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K52" s="3">
         <v>47500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>50300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189800</v>
+        <v>112200</v>
       </c>
       <c r="E54" s="3">
-        <v>205500</v>
+        <v>189400</v>
       </c>
       <c r="F54" s="3">
-        <v>240000</v>
+        <v>205100</v>
       </c>
       <c r="G54" s="3">
-        <v>214300</v>
+        <v>239600</v>
       </c>
       <c r="H54" s="3">
-        <v>263800</v>
+        <v>213900</v>
       </c>
       <c r="I54" s="3">
-        <v>207700</v>
+        <v>263300</v>
       </c>
       <c r="J54" s="3">
+        <v>207300</v>
+      </c>
+      <c r="K54" s="3">
         <v>204300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>212600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>228300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>253600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>277000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,185 +2527,198 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7400</v>
+        <v>6400</v>
       </c>
       <c r="E57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
-        <v>7600</v>
-      </c>
       <c r="J57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42700</v>
+        <v>42400</v>
       </c>
       <c r="E58" s="3">
-        <v>43000</v>
+        <v>42600</v>
       </c>
       <c r="F58" s="3">
-        <v>48100</v>
+        <v>42900</v>
       </c>
       <c r="G58" s="3">
-        <v>63200</v>
+        <v>48000</v>
       </c>
       <c r="H58" s="3">
-        <v>50500</v>
+        <v>63100</v>
       </c>
       <c r="I58" s="3">
-        <v>75400</v>
+        <v>50400</v>
       </c>
       <c r="J58" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K58" s="3">
         <v>38300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47100</v>
+        <v>46600</v>
       </c>
       <c r="E59" s="3">
-        <v>48400</v>
+        <v>47000</v>
       </c>
       <c r="F59" s="3">
-        <v>46600</v>
+        <v>48300</v>
       </c>
       <c r="G59" s="3">
-        <v>49600</v>
+        <v>46500</v>
       </c>
       <c r="H59" s="3">
-        <v>50900</v>
+        <v>49500</v>
       </c>
       <c r="I59" s="3">
+        <v>50800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>53800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>52500</v>
+      </c>
+      <c r="M59" s="3">
         <v>57900</v>
       </c>
-      <c r="J59" s="3">
-        <v>53800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>52500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>57900</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>97100</v>
+        <v>95400</v>
       </c>
       <c r="E60" s="3">
-        <v>100200</v>
+        <v>96900</v>
       </c>
       <c r="F60" s="3">
-        <v>99800</v>
+        <v>100000</v>
       </c>
       <c r="G60" s="3">
-        <v>119200</v>
+        <v>99600</v>
       </c>
       <c r="H60" s="3">
-        <v>103600</v>
+        <v>118900</v>
       </c>
       <c r="I60" s="3">
-        <v>140800</v>
+        <v>103400</v>
       </c>
       <c r="J60" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K60" s="3">
         <v>96400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>69900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71300</v>
+        <v>108400</v>
       </c>
       <c r="E61" s="3">
-        <v>55800</v>
+        <v>71200</v>
       </c>
       <c r="F61" s="3">
         <v>55700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>55600</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>12800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2587,14 +2729,17 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>12900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2602,38 +2747,41 @@
         <v>2700</v>
       </c>
       <c r="E62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
         <v>2800</v>
       </c>
       <c r="G62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171100</v>
+        <v>206500</v>
       </c>
       <c r="E66" s="3">
-        <v>158800</v>
+        <v>170800</v>
       </c>
       <c r="F66" s="3">
-        <v>158300</v>
+        <v>158500</v>
       </c>
       <c r="G66" s="3">
-        <v>121900</v>
+        <v>158000</v>
       </c>
       <c r="H66" s="3">
-        <v>119500</v>
+        <v>121700</v>
       </c>
       <c r="I66" s="3">
-        <v>143100</v>
+        <v>119200</v>
       </c>
       <c r="J66" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K66" s="3">
         <v>99700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1041900</v>
+        <v>-1152800</v>
       </c>
       <c r="E72" s="3">
-        <v>-995500</v>
+        <v>-1039900</v>
       </c>
       <c r="F72" s="3">
-        <v>-960300</v>
+        <v>-993500</v>
       </c>
       <c r="G72" s="3">
-        <v>-910200</v>
+        <v>-958400</v>
       </c>
       <c r="H72" s="3">
-        <v>-858300</v>
+        <v>-908400</v>
       </c>
       <c r="I72" s="3">
-        <v>-812000</v>
+        <v>-856700</v>
       </c>
       <c r="J72" s="3">
+        <v>-810400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-772000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-740000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-728900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-718500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-674000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18700</v>
+        <v>-94300</v>
       </c>
       <c r="E76" s="3">
-        <v>46700</v>
+        <v>18600</v>
       </c>
       <c r="F76" s="3">
-        <v>81800</v>
+        <v>46600</v>
       </c>
       <c r="G76" s="3">
-        <v>92400</v>
+        <v>81600</v>
       </c>
       <c r="H76" s="3">
-        <v>144400</v>
+        <v>92300</v>
       </c>
       <c r="I76" s="3">
-        <v>64600</v>
+        <v>144100</v>
       </c>
       <c r="J76" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K76" s="3">
         <v>104600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>134100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>165700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>199100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46500</v>
+        <v>-112900</v>
       </c>
       <c r="E81" s="3">
-        <v>-35200</v>
+        <v>-46400</v>
       </c>
       <c r="F81" s="3">
-        <v>-50700</v>
+        <v>-35100</v>
       </c>
       <c r="G81" s="3">
-        <v>-58200</v>
+        <v>-50600</v>
       </c>
       <c r="H81" s="3">
-        <v>-46400</v>
+        <v>-58100</v>
       </c>
       <c r="I81" s="3">
-        <v>-40000</v>
+        <v>-46300</v>
       </c>
       <c r="J81" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-29800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-35900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="E83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>35300</v>
+      </c>
+      <c r="G83" s="3">
         <v>38200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>40500</v>
       </c>
-      <c r="G83" s="3">
-        <v>42600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>41400</v>
-      </c>
       <c r="I83" s="3">
-        <v>44300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>42500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>41300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>42300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F89" s="3">
         <v>14000</v>
       </c>
-      <c r="E89" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-23500</v>
-      </c>
       <c r="G89" s="3">
-        <v>-26400</v>
+        <v>-20400</v>
       </c>
       <c r="H89" s="3">
-        <v>11500</v>
+        <v>-23400</v>
       </c>
       <c r="I89" s="3">
-        <v>17500</v>
+        <v>-26300</v>
       </c>
       <c r="J89" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K89" s="3">
         <v>14600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-17400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-22500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-25200</v>
-      </c>
       <c r="J91" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-24900</v>
-      </c>
       <c r="G94" s="3">
-        <v>-25200</v>
+        <v>-29300</v>
       </c>
       <c r="H94" s="3">
-        <v>-47400</v>
+        <v>-24800</v>
       </c>
       <c r="I94" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-25100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-47300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-37600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11700</v>
+        <v>28300</v>
       </c>
       <c r="E100" s="3">
-        <v>58000</v>
+        <v>18000</v>
       </c>
       <c r="F100" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>57900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>113200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>36400</v>
-      </c>
       <c r="I100" s="3">
-        <v>25600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>113000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>36300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-12900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3976,61 +4224,67 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8200</v>
       </c>
-      <c r="F102" s="3">
-        <v>-49900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>61600</v>
-      </c>
       <c r="H102" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>61500</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ICABY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>114200</v>
+        <v>114800</v>
       </c>
       <c r="E8" s="3">
-        <v>126100</v>
+        <v>126800</v>
       </c>
       <c r="F8" s="3">
-        <v>136300</v>
+        <v>137000</v>
       </c>
       <c r="G8" s="3">
-        <v>148000</v>
+        <v>148800</v>
       </c>
       <c r="H8" s="3">
-        <v>148300</v>
+        <v>149100</v>
       </c>
       <c r="I8" s="3">
-        <v>160500</v>
+        <v>161300</v>
       </c>
       <c r="J8" s="3">
-        <v>179300</v>
+        <v>180300</v>
       </c>
       <c r="K8" s="3">
         <v>192900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>138800</v>
+        <v>139500</v>
       </c>
       <c r="E9" s="3">
-        <v>124300</v>
+        <v>125000</v>
       </c>
       <c r="F9" s="3">
-        <v>122400</v>
+        <v>123000</v>
       </c>
       <c r="G9" s="3">
-        <v>141900</v>
+        <v>142600</v>
       </c>
       <c r="H9" s="3">
-        <v>149000</v>
+        <v>149800</v>
       </c>
       <c r="I9" s="3">
-        <v>135100</v>
+        <v>135800</v>
       </c>
       <c r="J9" s="3">
-        <v>134500</v>
+        <v>135200</v>
       </c>
       <c r="K9" s="3">
         <v>151600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="E10" s="3">
         <v>1800</v>
       </c>
       <c r="F10" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="G10" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H10" s="3">
         <v>-700</v>
       </c>
       <c r="I10" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="J10" s="3">
-        <v>44900</v>
+        <v>45100</v>
       </c>
       <c r="K10" s="3">
         <v>41300</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I14" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1002,19 +1002,19 @@
         <v>6500</v>
       </c>
       <c r="F15" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G15" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="H15" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="I15" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="J15" s="3">
-        <v>41300</v>
+        <v>41500</v>
       </c>
       <c r="K15" s="3">
         <v>28500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>189200</v>
+        <v>190200</v>
       </c>
       <c r="E17" s="3">
-        <v>165500</v>
+        <v>166300</v>
       </c>
       <c r="F17" s="3">
-        <v>166200</v>
+        <v>167100</v>
       </c>
       <c r="G17" s="3">
-        <v>194400</v>
+        <v>195500</v>
       </c>
       <c r="H17" s="3">
-        <v>206700</v>
+        <v>207800</v>
       </c>
       <c r="I17" s="3">
-        <v>208000</v>
+        <v>209100</v>
       </c>
       <c r="J17" s="3">
-        <v>219100</v>
+        <v>220300</v>
       </c>
       <c r="K17" s="3">
         <v>223800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-75000</v>
+        <v>-75400</v>
       </c>
       <c r="E18" s="3">
-        <v>-39300</v>
+        <v>-39500</v>
       </c>
       <c r="F18" s="3">
-        <v>-29900</v>
+        <v>-30100</v>
       </c>
       <c r="G18" s="3">
-        <v>-46400</v>
+        <v>-46700</v>
       </c>
       <c r="H18" s="3">
-        <v>-58400</v>
+        <v>-58700</v>
       </c>
       <c r="I18" s="3">
-        <v>-47500</v>
+        <v>-47700</v>
       </c>
       <c r="J18" s="3">
-        <v>-39800</v>
+        <v>-40000</v>
       </c>
       <c r="K18" s="3">
         <v>-31000</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1164,7 +1164,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>1700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-48800</v>
+        <v>-49100</v>
       </c>
       <c r="E21" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="F21" s="3">
         <v>5500</v>
       </c>
       <c r="G21" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="H21" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="I21" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="J21" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-89000</v>
+        <v>-89500</v>
       </c>
       <c r="E23" s="3">
-        <v>-44900</v>
+        <v>-45200</v>
       </c>
       <c r="F23" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="G23" s="3">
-        <v>-50600</v>
+        <v>-50900</v>
       </c>
       <c r="H23" s="3">
-        <v>-58000</v>
+        <v>-58300</v>
       </c>
       <c r="I23" s="3">
-        <v>-46700</v>
+        <v>-46900</v>
       </c>
       <c r="J23" s="3">
-        <v>-40500</v>
+        <v>-40700</v>
       </c>
       <c r="K23" s="3">
         <v>-31500</v>
@@ -1323,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="E24" s="3">
         <v>1500</v>
@@ -1341,7 +1341,7 @@
         <v>-400</v>
       </c>
       <c r="J24" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K24" s="3">
         <v>-1700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-112900</v>
+        <v>-113500</v>
       </c>
       <c r="E26" s="3">
-        <v>-46400</v>
+        <v>-46600</v>
       </c>
       <c r="F26" s="3">
-        <v>-35100</v>
+        <v>-35300</v>
       </c>
       <c r="G26" s="3">
-        <v>-50600</v>
+        <v>-50900</v>
       </c>
       <c r="H26" s="3">
-        <v>-58100</v>
+        <v>-58400</v>
       </c>
       <c r="I26" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="J26" s="3">
-        <v>-39900</v>
+        <v>-40100</v>
       </c>
       <c r="K26" s="3">
         <v>-29800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-112900</v>
+        <v>-113500</v>
       </c>
       <c r="E27" s="3">
-        <v>-46400</v>
+        <v>-46600</v>
       </c>
       <c r="F27" s="3">
-        <v>-35100</v>
+        <v>-35300</v>
       </c>
       <c r="G27" s="3">
-        <v>-50600</v>
+        <v>-50900</v>
       </c>
       <c r="H27" s="3">
-        <v>-58100</v>
+        <v>-58400</v>
       </c>
       <c r="I27" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="J27" s="3">
-        <v>-39900</v>
+        <v>-40100</v>
       </c>
       <c r="K27" s="3">
         <v>-29800</v>
@@ -1659,7 +1659,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1668,7 +1668,7 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>-1700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-112900</v>
+        <v>-113500</v>
       </c>
       <c r="E33" s="3">
-        <v>-46400</v>
+        <v>-46600</v>
       </c>
       <c r="F33" s="3">
-        <v>-35100</v>
+        <v>-35300</v>
       </c>
       <c r="G33" s="3">
-        <v>-50600</v>
+        <v>-50900</v>
       </c>
       <c r="H33" s="3">
-        <v>-58100</v>
+        <v>-58400</v>
       </c>
       <c r="I33" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="J33" s="3">
-        <v>-39900</v>
+        <v>-40100</v>
       </c>
       <c r="K33" s="3">
         <v>-29800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-112900</v>
+        <v>-113500</v>
       </c>
       <c r="E35" s="3">
-        <v>-46400</v>
+        <v>-46600</v>
       </c>
       <c r="F35" s="3">
-        <v>-35100</v>
+        <v>-35300</v>
       </c>
       <c r="G35" s="3">
-        <v>-50600</v>
+        <v>-50900</v>
       </c>
       <c r="H35" s="3">
-        <v>-58100</v>
+        <v>-58400</v>
       </c>
       <c r="I35" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="J35" s="3">
-        <v>-39900</v>
+        <v>-40100</v>
       </c>
       <c r="K35" s="3">
         <v>-29800</v>
@@ -1913,22 +1913,22 @@
         <v>5300</v>
       </c>
       <c r="E41" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F41" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="G41" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="H41" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="I41" s="3">
-        <v>74600</v>
+        <v>75000</v>
       </c>
       <c r="J41" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="K41" s="3">
         <v>10500</v>
@@ -1955,7 +1955,7 @@
         <v>5100</v>
       </c>
       <c r="E42" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1994,19 +1994,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="E43" s="3">
         <v>13800</v>
       </c>
       <c r="F43" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="G43" s="3">
         <v>13600</v>
       </c>
       <c r="H43" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I43" s="3">
         <v>5600</v>
@@ -2084,10 +2084,10 @@
         <v>8900</v>
       </c>
       <c r="F45" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="H45" s="3">
         <v>12300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="E46" s="3">
-        <v>44700</v>
+        <v>44900</v>
       </c>
       <c r="F46" s="3">
-        <v>47300</v>
+        <v>47600</v>
       </c>
       <c r="G46" s="3">
-        <v>67400</v>
+        <v>67800</v>
       </c>
       <c r="H46" s="3">
-        <v>43700</v>
+        <v>43900</v>
       </c>
       <c r="I46" s="3">
-        <v>86800</v>
+        <v>87300</v>
       </c>
       <c r="J46" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="K46" s="3">
         <v>24700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>59600</v>
+        <v>59900</v>
       </c>
       <c r="E48" s="3">
-        <v>92400</v>
+        <v>92900</v>
       </c>
       <c r="F48" s="3">
-        <v>104100</v>
+        <v>104700</v>
       </c>
       <c r="G48" s="3">
-        <v>116200</v>
+        <v>116800</v>
       </c>
       <c r="H48" s="3">
-        <v>109500</v>
+        <v>110100</v>
       </c>
       <c r="I48" s="3">
-        <v>113300</v>
+        <v>113900</v>
       </c>
       <c r="J48" s="3">
-        <v>114000</v>
+        <v>114600</v>
       </c>
       <c r="K48" s="3">
         <v>111600</v>
@@ -2252,19 +2252,19 @@
         <v>10200</v>
       </c>
       <c r="F49" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G49" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="H49" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="I49" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="J49" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="K49" s="3">
         <v>20500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="E52" s="3">
-        <v>42200</v>
+        <v>42400</v>
       </c>
       <c r="F52" s="3">
-        <v>42600</v>
+        <v>42800</v>
       </c>
       <c r="G52" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="H52" s="3">
-        <v>45800</v>
+        <v>46100</v>
       </c>
       <c r="I52" s="3">
-        <v>43700</v>
+        <v>43900</v>
       </c>
       <c r="J52" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="K52" s="3">
         <v>47500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112200</v>
+        <v>112700</v>
       </c>
       <c r="E54" s="3">
-        <v>189400</v>
+        <v>190400</v>
       </c>
       <c r="F54" s="3">
-        <v>205100</v>
+        <v>206200</v>
       </c>
       <c r="G54" s="3">
-        <v>239600</v>
+        <v>240800</v>
       </c>
       <c r="H54" s="3">
-        <v>213900</v>
+        <v>215100</v>
       </c>
       <c r="I54" s="3">
-        <v>263300</v>
+        <v>264700</v>
       </c>
       <c r="J54" s="3">
-        <v>207300</v>
+        <v>208400</v>
       </c>
       <c r="K54" s="3">
         <v>204300</v>
@@ -2537,22 +2537,22 @@
         <v>6400</v>
       </c>
       <c r="E57" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F57" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G57" s="3">
         <v>5000</v>
       </c>
       <c r="H57" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I57" s="3">
         <v>2200</v>
       </c>
       <c r="J57" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="K57" s="3">
         <v>4200</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42400</v>
+        <v>42600</v>
       </c>
       <c r="E58" s="3">
-        <v>42600</v>
+        <v>42800</v>
       </c>
       <c r="F58" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="G58" s="3">
-        <v>48000</v>
+        <v>48300</v>
       </c>
       <c r="H58" s="3">
-        <v>63100</v>
+        <v>63500</v>
       </c>
       <c r="I58" s="3">
-        <v>50400</v>
+        <v>50600</v>
       </c>
       <c r="J58" s="3">
-        <v>75200</v>
+        <v>75600</v>
       </c>
       <c r="K58" s="3">
         <v>38300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46600</v>
+        <v>46800</v>
       </c>
       <c r="E59" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="F59" s="3">
-        <v>48300</v>
+        <v>48500</v>
       </c>
       <c r="G59" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="H59" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="I59" s="3">
-        <v>50800</v>
+        <v>51100</v>
       </c>
       <c r="J59" s="3">
-        <v>57800</v>
+        <v>58100</v>
       </c>
       <c r="K59" s="3">
         <v>53800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>95400</v>
+        <v>95900</v>
       </c>
       <c r="E60" s="3">
-        <v>96900</v>
+        <v>97400</v>
       </c>
       <c r="F60" s="3">
-        <v>100000</v>
+        <v>100500</v>
       </c>
       <c r="G60" s="3">
-        <v>99600</v>
+        <v>100100</v>
       </c>
       <c r="H60" s="3">
-        <v>118900</v>
+        <v>119600</v>
       </c>
       <c r="I60" s="3">
-        <v>103400</v>
+        <v>103900</v>
       </c>
       <c r="J60" s="3">
-        <v>140600</v>
+        <v>141300</v>
       </c>
       <c r="K60" s="3">
         <v>96400</v>
@@ -2702,16 +2702,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>108400</v>
+        <v>108900</v>
       </c>
       <c r="E61" s="3">
-        <v>71200</v>
+        <v>71500</v>
       </c>
       <c r="F61" s="3">
-        <v>55700</v>
+        <v>56000</v>
       </c>
       <c r="G61" s="3">
-        <v>55600</v>
+        <v>55900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>206500</v>
+        <v>207500</v>
       </c>
       <c r="E66" s="3">
-        <v>170800</v>
+        <v>171700</v>
       </c>
       <c r="F66" s="3">
-        <v>158500</v>
+        <v>159400</v>
       </c>
       <c r="G66" s="3">
-        <v>158000</v>
+        <v>158800</v>
       </c>
       <c r="H66" s="3">
-        <v>121700</v>
+        <v>122300</v>
       </c>
       <c r="I66" s="3">
-        <v>119200</v>
+        <v>119800</v>
       </c>
       <c r="J66" s="3">
-        <v>142800</v>
+        <v>143600</v>
       </c>
       <c r="K66" s="3">
         <v>99700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1152800</v>
+        <v>-1158900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1039900</v>
+        <v>-1045400</v>
       </c>
       <c r="F72" s="3">
-        <v>-993500</v>
+        <v>-998700</v>
       </c>
       <c r="G72" s="3">
-        <v>-958400</v>
+        <v>-963400</v>
       </c>
       <c r="H72" s="3">
-        <v>-908400</v>
+        <v>-913200</v>
       </c>
       <c r="I72" s="3">
-        <v>-856700</v>
+        <v>-861200</v>
       </c>
       <c r="J72" s="3">
-        <v>-810400</v>
+        <v>-814700</v>
       </c>
       <c r="K72" s="3">
         <v>-772000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-94300</v>
+        <v>-94800</v>
       </c>
       <c r="E76" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F76" s="3">
-        <v>46600</v>
+        <v>46800</v>
       </c>
       <c r="G76" s="3">
-        <v>81600</v>
+        <v>82000</v>
       </c>
       <c r="H76" s="3">
-        <v>92300</v>
+        <v>92800</v>
       </c>
       <c r="I76" s="3">
-        <v>144100</v>
+        <v>144800</v>
       </c>
       <c r="J76" s="3">
-        <v>64400</v>
+        <v>64800</v>
       </c>
       <c r="K76" s="3">
         <v>104600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-112900</v>
+        <v>-113500</v>
       </c>
       <c r="E81" s="3">
-        <v>-46400</v>
+        <v>-46600</v>
       </c>
       <c r="F81" s="3">
-        <v>-35100</v>
+        <v>-35300</v>
       </c>
       <c r="G81" s="3">
-        <v>-50600</v>
+        <v>-50900</v>
       </c>
       <c r="H81" s="3">
-        <v>-58100</v>
+        <v>-58400</v>
       </c>
       <c r="I81" s="3">
-        <v>-46300</v>
+        <v>-46500</v>
       </c>
       <c r="J81" s="3">
-        <v>-39900</v>
+        <v>-40100</v>
       </c>
       <c r="K81" s="3">
         <v>-29800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="E83" s="3">
-        <v>34400</v>
+        <v>34600</v>
       </c>
       <c r="F83" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="G83" s="3">
-        <v>38200</v>
+        <v>38400</v>
       </c>
       <c r="H83" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="I83" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="J83" s="3">
-        <v>41300</v>
+        <v>41500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="E89" s="3">
         <v>-7500</v>
       </c>
       <c r="F89" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="G89" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="H89" s="3">
-        <v>-23400</v>
+        <v>-23500</v>
       </c>
       <c r="I89" s="3">
-        <v>-26300</v>
+        <v>-26500</v>
       </c>
       <c r="J89" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="K89" s="3">
         <v>14600</v>
@@ -3817,19 +3817,19 @@
         <v>-13700</v>
       </c>
       <c r="F91" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="G91" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="H91" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="I91" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="J91" s="3">
-        <v>-29800</v>
+        <v>-30000</v>
       </c>
       <c r="K91" s="3">
         <v>-24000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="E94" s="3">
-        <v>-21700</v>
+        <v>-21800</v>
       </c>
       <c r="F94" s="3">
         <v>-13200</v>
       </c>
       <c r="G94" s="3">
-        <v>-29300</v>
+        <v>-29500</v>
       </c>
       <c r="H94" s="3">
-        <v>-24800</v>
+        <v>-25000</v>
       </c>
       <c r="I94" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="J94" s="3">
-        <v>-47300</v>
+        <v>-47500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>28300</v>
+        <v>28400</v>
       </c>
       <c r="E100" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="F100" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="G100" s="3">
-        <v>57900</v>
+        <v>58200</v>
       </c>
       <c r="H100" s="3">
         <v>-1500</v>
       </c>
       <c r="I100" s="3">
-        <v>113000</v>
+        <v>113600</v>
       </c>
       <c r="J100" s="3">
-        <v>36300</v>
+        <v>36500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4249,10 +4249,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E102" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="F102" s="3">
         <v>-10800</v>
@@ -4261,10 +4261,10 @@
         <v>8200</v>
       </c>
       <c r="H102" s="3">
-        <v>-49800</v>
+        <v>-50000</v>
       </c>
       <c r="I102" s="3">
-        <v>61500</v>
+        <v>61800</v>
       </c>
       <c r="J102" s="3">
         <v>400</v>
